--- a/DataWorkbookRubella.xlsx
+++ b/DataWorkbookRubella.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/diphtheria-model-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A04D72-06C5-9C40-ABE2-37C01BE7D21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB2010-1A2F-C74C-8927-DE2A146DD7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="4660" windowWidth="26040" windowHeight="14940" xr2:uid="{F270E22A-AF68-0948-A29A-BD37CB605717}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{F270E22A-AF68-0948-A29A-BD37CB605717}"/>
   </bookViews>
   <sheets>
     <sheet name="coverage_table " sheetId="1" r:id="rId1"/>
     <sheet name="age_ref" sheetId="2" r:id="rId2"/>
+    <sheet name="Initial_conditions" sheetId="3" r:id="rId3"/>
+    <sheet name="init_cond" sheetId="5" r:id="rId4"/>
+    <sheet name="Original_Prev" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="148">
   <si>
     <t>Year</t>
   </si>
@@ -393,23 +396,101 @@
     <t>80-90 years</t>
   </si>
   <si>
-    <t>90-100 years</t>
-  </si>
-  <si>
-    <t>100+years</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
     <t>cov2</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>AGE-GROUP</t>
+  </si>
+  <si>
+    <t>50 plus</t>
+  </si>
+  <si>
+    <t>1-4 yrs</t>
+  </si>
+  <si>
+    <t>5 - 9 yrs</t>
+  </si>
+  <si>
+    <t>10-14 yrs</t>
+  </si>
+  <si>
+    <t>15-19 yrs</t>
+  </si>
+  <si>
+    <t>20 -24 yrs</t>
+  </si>
+  <si>
+    <t>25-29 yrs</t>
+  </si>
+  <si>
+    <t>30 - 34 yrs</t>
+  </si>
+  <si>
+    <t>35 - 39 yrs</t>
+  </si>
+  <si>
+    <t>40 -44 yrs</t>
+  </si>
+  <si>
+    <t>45- 49 yrs</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>age_cats</t>
+  </si>
+  <si>
+    <t>male_Pop</t>
+  </si>
+  <si>
+    <t>female_Pop</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>Positive_2018</t>
+  </si>
+  <si>
+    <t>Negative_2018</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,6 +518,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -458,11 +559,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917292A4-9338-E94E-B68D-A55C5E1870DD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1167,15 +1273,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9811A8AF-EDA4-A54D-892C-4381AE7679AA}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -2042,15 +2148,7508 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="B110" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1259BB-28D2-D444-9A98-E43CED16CD11}">
+  <dimension ref="A1:M144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>0.5*(L2/100)*G2</f>
+        <v>366840.0675</v>
+      </c>
+      <c r="D2">
+        <f>(K2/100)*G2</f>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E2">
+        <f>0.5*(L2/100)*G2</f>
+        <v>366840.0675</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>I2+J2</f>
+        <v>959059</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J2" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K2" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M2" s="6">
+        <f>SUM(C2:E2)-G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>0.5*(L3/100)*G3</f>
+        <v>366840.0675</v>
+      </c>
+      <c r="D3">
+        <f>(K3/100)*G3</f>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">0.5*(L3/100)*G3</f>
+        <v>366840.0675</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G66" si="1">I3+J3</f>
+        <v>959059</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J3" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K3" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:M66" si="2">SUM(C3:E3)-G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C3:C66" si="3">0.5*(L4/100)*G4</f>
+        <v>366840.0675</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="4">(K4/100)*G4</f>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J4" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K4" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M4" s="6">
+        <f>SUM(C4:E4)-G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J5" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K5" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J6" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K6" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J7" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K7" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J8" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K8" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J9" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K9" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J10" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K10" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J11" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K11" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J12" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K12" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>366840.0675</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>959059</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7">
+        <v>482465</v>
+      </c>
+      <c r="J13" s="6">
+        <v>476594</v>
+      </c>
+      <c r="K13" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M13" s="6">
+        <f>SUM(C13:E13)-G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J14" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K14" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J15" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K15" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J16" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K16" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J17" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K17" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J18" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K18" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J19" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K19" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J20" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K20" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J21" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K21" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J22" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K22" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J23" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K23" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J24" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K24" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
+        <v>919151</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="7">
+        <v>462110</v>
+      </c>
+      <c r="J25" s="6">
+        <v>457041</v>
+      </c>
+      <c r="K25" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L25" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J26" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K26" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J27" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K27" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J28" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K28" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L28" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J29" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K29" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L29" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J30" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K30" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L30" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J31" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K31" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L31" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J32" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K32" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J33" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K33" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J34" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K34" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J35" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K35" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L35" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J36" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K36" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L36" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>218871.715</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="1"/>
+        <v>931369</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="7">
+        <v>468475</v>
+      </c>
+      <c r="J37" s="6">
+        <v>462894</v>
+      </c>
+      <c r="K37" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J38" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K38" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L38" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J39" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K39" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L39" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J40" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K40" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L40" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J41" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K41" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L41" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J42" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K42" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L42" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J43" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K43" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L43" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J44" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K44" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L44" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J45" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K45" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L45" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J46" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K46" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L46" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J47" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K47" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L47" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M47" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J48" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K48" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L48" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>227077.68</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="1"/>
+        <v>966288</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="7">
+        <v>485954</v>
+      </c>
+      <c r="J49" s="6">
+        <v>480334</v>
+      </c>
+      <c r="K49" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L49" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>362134.17</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>222487.65999999997</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>362134.17</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="1"/>
+        <v>946756</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="7">
+        <v>475715</v>
+      </c>
+      <c r="J50" s="6">
+        <v>471041</v>
+      </c>
+      <c r="K50" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="L50" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>191322.25200000001</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>569207.49599999993</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>191322.25200000001</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="1"/>
+        <v>951852</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="7">
+        <v>477195</v>
+      </c>
+      <c r="J51" s="6">
+        <v>474657</v>
+      </c>
+      <c r="K51" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="L51" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>191950.98</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>571078.03999999992</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>191950.98</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="1"/>
+        <v>954980</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="7">
+        <v>477831</v>
+      </c>
+      <c r="J52" s="6">
+        <v>477149</v>
+      </c>
+      <c r="K52" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="L52" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>193076.98200000002</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>574428.03599999996</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>193076.98200000002</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="1"/>
+        <v>960582</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="7">
+        <v>480036</v>
+      </c>
+      <c r="J53" s="6">
+        <v>480546</v>
+      </c>
+      <c r="K53" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="L53" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>194261.073</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>577950.85399999993</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>194261.073</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="1"/>
+        <v>966473</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="7">
+        <v>482670</v>
+      </c>
+      <c r="J54" s="6">
+        <v>483803</v>
+      </c>
+      <c r="K54" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="L54" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>195691.992</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>582208.01599999995</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>195691.992</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="1"/>
+        <v>973592</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="7">
+        <v>486005</v>
+      </c>
+      <c r="J55" s="6">
+        <v>487587</v>
+      </c>
+      <c r="K55" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="L55" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>85058.564000000013</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>813218.87200000009</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>85058.564000000013</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="1"/>
+        <v>983336</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="7">
+        <v>491006</v>
+      </c>
+      <c r="J56" s="6">
+        <v>492330</v>
+      </c>
+      <c r="K56" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="L56" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="M56" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>85741.135500000004</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>819744.72900000005</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>85741.135500000004</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="1"/>
+        <v>991227</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="7">
+        <v>495010</v>
+      </c>
+      <c r="J57" s="6">
+        <v>496217</v>
+      </c>
+      <c r="K57" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="L57" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="M57" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>86540.136000000013</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>827383.72800000012</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>86540.136000000013</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="1"/>
+        <v>1000464</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="7">
+        <v>499272</v>
+      </c>
+      <c r="J58" s="6">
+        <v>501192</v>
+      </c>
+      <c r="K58" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="L58" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>87276.337500000009</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>834422.32500000007</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>87276.337500000009</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="1"/>
+        <v>1008975</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="7">
+        <v>502807</v>
+      </c>
+      <c r="J59" s="6">
+        <v>506168</v>
+      </c>
+      <c r="K59" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="L59" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="M59" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>87823.190500000012</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>839650.61900000006</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>87823.190500000012</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="1"/>
+        <v>1015297</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="7">
+        <v>506106</v>
+      </c>
+      <c r="J60" s="6">
+        <v>509191</v>
+      </c>
+      <c r="K60" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="L60" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="M60" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>43099.974999999999</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>916125.05</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>43099.974999999999</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="1"/>
+        <v>1002325</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="7">
+        <v>498707</v>
+      </c>
+      <c r="J61" s="6">
+        <v>503618</v>
+      </c>
+      <c r="K61" s="4">
+        <v>91.4</v>
+      </c>
+      <c r="L61" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M61" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>42774.808999999994</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>909213.38199999998</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>42774.808999999994</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="1"/>
+        <v>994763</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62" s="7">
+        <v>494286</v>
+      </c>
+      <c r="J62" s="6">
+        <v>500477</v>
+      </c>
+      <c r="K62" s="4">
+        <v>91.4</v>
+      </c>
+      <c r="L62" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M62" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>41960.603999999999</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>891906.79200000002</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>41960.603999999999</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="1"/>
+        <v>975828</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63" s="7">
+        <v>484387</v>
+      </c>
+      <c r="J63" s="6">
+        <v>491441</v>
+      </c>
+      <c r="K63" s="4">
+        <v>91.4</v>
+      </c>
+      <c r="L63" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M63" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>40731.878999999994</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>865789.24200000009</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>40731.878999999994</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="1"/>
+        <v>947253</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="7">
+        <v>469743</v>
+      </c>
+      <c r="J64" s="6">
+        <v>477510</v>
+      </c>
+      <c r="K64" s="4">
+        <v>91.4</v>
+      </c>
+      <c r="L64" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M64" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>39296.625</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>835281.75</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>39296.625</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="1"/>
+        <v>913875</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" s="7">
+        <v>452511</v>
+      </c>
+      <c r="J65" s="6">
+        <v>461364</v>
+      </c>
+      <c r="K65" s="4">
+        <v>91.4</v>
+      </c>
+      <c r="L65" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>32662.601000000006</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>817447.79799999995</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>32662.601000000006</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="1"/>
+        <v>882773</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="7">
+        <v>436116</v>
+      </c>
+      <c r="J66" s="6">
+        <v>446657</v>
+      </c>
+      <c r="K66" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="L66" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C109" si="5">0.5*(L67/100)*G67</f>
+        <v>31748.220000000005</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>794563.55999999994</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E109" si="6">0.5*(L67/100)*G67</f>
+        <v>31748.220000000005</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:G109" si="7">I67+J67</f>
+        <v>858060</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="7">
+        <v>422640</v>
+      </c>
+      <c r="J67" s="6">
+        <v>435420</v>
+      </c>
+      <c r="K67" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="L67" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" ref="M67:M109" si="8">SUM(C67:E67)-G67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>31209.278000000006</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D109" si="9">(K68/100)*G68</f>
+        <v>781075.4439999999</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>31209.278000000006</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="7"/>
+        <v>843494</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="7">
+        <v>414150</v>
+      </c>
+      <c r="J68" s="6">
+        <v>429344</v>
+      </c>
+      <c r="K68" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="L68" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>30942.767000000003</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="9"/>
+        <v>774405.4659999999</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>30942.767000000003</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="7"/>
+        <v>836291</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" s="7">
+        <v>409384</v>
+      </c>
+      <c r="J69" s="6">
+        <v>426907</v>
+      </c>
+      <c r="K69" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="L69" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>30757.693000000003</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="9"/>
+        <v>769773.61399999994</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>30757.693000000003</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="7"/>
+        <v>831289</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="7">
+        <v>405844</v>
+      </c>
+      <c r="J70" s="6">
+        <v>425445</v>
+      </c>
+      <c r="K70" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="L70" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>29193.566999999999</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="9"/>
+        <v>763966.86600000004</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>29193.566999999999</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="7"/>
+        <v>822354</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="7">
+        <v>400498</v>
+      </c>
+      <c r="J71" s="6">
+        <v>421856</v>
+      </c>
+      <c r="K71" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="L71" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="M71" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>28664.474999999999</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="9"/>
+        <v>750121.05</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>28664.474999999999</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="7"/>
+        <v>807450</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72" s="7">
+        <v>392439</v>
+      </c>
+      <c r="J72" s="6">
+        <v>415011</v>
+      </c>
+      <c r="K72" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="L72" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="M72" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>27850.921499999997</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>728831.15700000001</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>27850.921499999997</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="7"/>
+        <v>784533</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="7">
+        <v>380565</v>
+      </c>
+      <c r="J73" s="6">
+        <v>403968</v>
+      </c>
+      <c r="K73" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="L73" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="M73" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>26845.135499999997</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="9"/>
+        <v>702510.72900000005</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>26845.135499999997</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="7"/>
+        <v>756201</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I74" s="7">
+        <v>366136</v>
+      </c>
+      <c r="J74" s="6">
+        <v>390065</v>
+      </c>
+      <c r="K74" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="L74" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="M74" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>25779.993499999997</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="9"/>
+        <v>674637.01300000004</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>25779.993499999997</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="7"/>
+        <v>726197</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" s="7">
+        <v>351004</v>
+      </c>
+      <c r="J75" s="6">
+        <v>375193</v>
+      </c>
+      <c r="K75" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="L75" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="M75" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>26924.9365</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="9"/>
+        <v>645499.12699999998</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>26924.9365</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" si="7"/>
+        <v>699349</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="7">
+        <v>337393</v>
+      </c>
+      <c r="J76" s="6">
+        <v>361956</v>
+      </c>
+      <c r="K76" s="4">
+        <v>92.3</v>
+      </c>
+      <c r="L76" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="M76" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>26100.536</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="9"/>
+        <v>625734.92799999996</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>26100.536</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="7"/>
+        <v>677936</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I77" s="7">
+        <v>326161</v>
+      </c>
+      <c r="J77" s="6">
+        <v>351775</v>
+      </c>
+      <c r="K77" s="4">
+        <v>92.3</v>
+      </c>
+      <c r="L77" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="M77" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>25559.1875</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="9"/>
+        <v>612756.625</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>25559.1875</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="7"/>
+        <v>663875</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I78" s="7">
+        <v>318277</v>
+      </c>
+      <c r="J78" s="6">
+        <v>345598</v>
+      </c>
+      <c r="K78" s="4">
+        <v>92.3</v>
+      </c>
+      <c r="L78" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="M78" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>25207.721000000001</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="9"/>
+        <v>604330.55799999996</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>25207.721000000001</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" si="7"/>
+        <v>654746</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" s="7">
+        <v>312710</v>
+      </c>
+      <c r="J79" s="6">
+        <v>342036</v>
+      </c>
+      <c r="K79" s="4">
+        <v>92.3</v>
+      </c>
+      <c r="L79" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="M79" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>24909.461500000001</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="9"/>
+        <v>597180.07699999993</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>24909.461500000001</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="7"/>
+        <v>646999</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I80" s="7">
+        <v>307842</v>
+      </c>
+      <c r="J80" s="6">
+        <v>339157</v>
+      </c>
+      <c r="K80" s="4">
+        <v>92.3</v>
+      </c>
+      <c r="L80" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="M80" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>28681.424999999999</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="9"/>
+        <v>580002.15</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>28681.424999999999</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="7"/>
+        <v>637365</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="7">
+        <v>302373</v>
+      </c>
+      <c r="J81" s="6">
+        <v>334992</v>
+      </c>
+      <c r="K81" s="4">
+        <v>91</v>
+      </c>
+      <c r="L81" s="4">
+        <v>9</v>
+      </c>
+      <c r="M81" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>28143.945</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="9"/>
+        <v>569133.11</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>28143.945</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="7"/>
+        <v>625421</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="7">
+        <v>296389</v>
+      </c>
+      <c r="J82" s="6">
+        <v>329032</v>
+      </c>
+      <c r="K82" s="4">
+        <v>91</v>
+      </c>
+      <c r="L82" s="4">
+        <v>9</v>
+      </c>
+      <c r="M82" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>27430.244999999999</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="9"/>
+        <v>554700.51</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>27430.244999999999</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="7"/>
+        <v>609561</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="7">
+        <v>289132</v>
+      </c>
+      <c r="J83" s="6">
+        <v>320429</v>
+      </c>
+      <c r="K83" s="4">
+        <v>91</v>
+      </c>
+      <c r="L83" s="4">
+        <v>9</v>
+      </c>
+      <c r="M83" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>26577</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="9"/>
+        <v>537446</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>26577</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="7"/>
+        <v>590600</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I84" s="7">
+        <v>280740</v>
+      </c>
+      <c r="J84" s="6">
+        <v>309860</v>
+      </c>
+      <c r="K84" s="4">
+        <v>91</v>
+      </c>
+      <c r="L84" s="4">
+        <v>9</v>
+      </c>
+      <c r="M84" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>25688.204999999998</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="9"/>
+        <v>519472.59</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>25688.204999999998</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="7"/>
+        <v>570849</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="7">
+        <v>272042</v>
+      </c>
+      <c r="J85" s="6">
+        <v>298807</v>
+      </c>
+      <c r="K85" s="4">
+        <v>91</v>
+      </c>
+      <c r="L85" s="4">
+        <v>9</v>
+      </c>
+      <c r="M85" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>26182.427500000002</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="9"/>
+        <v>498844.14500000002</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>26182.427500000002</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" si="7"/>
+        <v>551209</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I86" s="7">
+        <v>263140</v>
+      </c>
+      <c r="J86" s="6">
+        <v>288069</v>
+      </c>
+      <c r="K86" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L86" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M86" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>25193.002499999999</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="9"/>
+        <v>479992.995</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>25193.002499999999</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="7"/>
+        <v>530379</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I87" s="7">
+        <v>253246</v>
+      </c>
+      <c r="J87" s="6">
+        <v>277133</v>
+      </c>
+      <c r="K87" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L87" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M87" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>24161.112499999999</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="9"/>
+        <v>460332.77500000002</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>24161.112499999999</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" s="6">
+        <f t="shared" si="7"/>
+        <v>508655</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I88" s="7">
+        <v>242433</v>
+      </c>
+      <c r="J88" s="6">
+        <v>266222</v>
+      </c>
+      <c r="K88" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L88" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M88" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>23106.09</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="9"/>
+        <v>440231.82</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>23106.09</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="7"/>
+        <v>486444</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I89" s="7">
+        <v>231089</v>
+      </c>
+      <c r="J89" s="6">
+        <v>255355</v>
+      </c>
+      <c r="K89" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L89" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M89" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>22038.005000000001</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="9"/>
+        <v>419881.99</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>22038.005000000001</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="7"/>
+        <v>463958</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I90" s="7">
+        <v>219561</v>
+      </c>
+      <c r="J90" s="6">
+        <v>244397</v>
+      </c>
+      <c r="K90" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L90" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M90" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>20321.466</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="9"/>
+        <v>401128.06799999997</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>20321.466</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="7"/>
+        <v>441771</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I91" s="7">
+        <v>208392</v>
+      </c>
+      <c r="J91" s="6">
+        <v>233379</v>
+      </c>
+      <c r="K91" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="L91" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M91" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>19344.150000000001</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="9"/>
+        <v>381836.69999999995</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>19344.150000000001</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="7"/>
+        <v>420525</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I92" s="7">
+        <v>197996</v>
+      </c>
+      <c r="J92" s="6">
+        <v>222529</v>
+      </c>
+      <c r="K92" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="L92" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M92" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>18426.358</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="9"/>
+        <v>363720.28399999999</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>18426.358</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="7"/>
+        <v>400573</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I93" s="7">
+        <v>188618</v>
+      </c>
+      <c r="J93" s="6">
+        <v>211955</v>
+      </c>
+      <c r="K93" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="L93" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M93" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>17557.234</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="9"/>
+        <v>346564.53199999995</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>17557.234</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="7"/>
+        <v>381679</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I94" s="7">
+        <v>179999</v>
+      </c>
+      <c r="J94" s="6">
+        <v>201680</v>
+      </c>
+      <c r="K94" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="L94" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M94" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>16733.374</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="9"/>
+        <v>330302.25199999998</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>16733.374</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="7"/>
+        <v>363769</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I95" s="7">
+        <v>171875</v>
+      </c>
+      <c r="J95" s="6">
+        <v>191894</v>
+      </c>
+      <c r="K95" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="L95" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M95" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>18688.050000000003</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="9"/>
+        <v>308698.90000000002</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>18688.050000000003</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="7"/>
+        <v>346075</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I96" s="7">
+        <v>163684</v>
+      </c>
+      <c r="J96" s="6">
+        <v>182391</v>
+      </c>
+      <c r="K96" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L96" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M96" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>17703.252</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="9"/>
+        <v>292431.49599999998</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>17703.252</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="7"/>
+        <v>327838</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I97" s="7">
+        <v>155019</v>
+      </c>
+      <c r="J97" s="6">
+        <v>172819</v>
+      </c>
+      <c r="K97" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L97" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M97" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>16668.342000000001</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="9"/>
+        <v>275336.31599999999</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="6"/>
+        <v>16668.342000000001</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="7"/>
+        <v>308673</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="7">
+        <v>145635</v>
+      </c>
+      <c r="J98" s="6">
+        <v>163038</v>
+      </c>
+      <c r="K98" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L98" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M98" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>15620.796000000002</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="9"/>
+        <v>258032.408</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>15620.796000000002</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="7"/>
+        <v>289274</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I99" s="7">
+        <v>135921</v>
+      </c>
+      <c r="J99" s="6">
+        <v>153353</v>
+      </c>
+      <c r="K99" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L99" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M99" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>14553.108000000002</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="9"/>
+        <v>240395.78400000001</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>14553.108000000002</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="7"/>
+        <v>269502</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>119</v>
+      <c r="I100" s="7">
+        <v>126022</v>
+      </c>
+      <c r="J100" s="6">
+        <v>143480</v>
+      </c>
+      <c r="K100" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L100" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M100" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>13575.708000000002</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="9"/>
+        <v>224250.584</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="6"/>
+        <v>13575.708000000002</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="7"/>
+        <v>251402</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I101" s="7">
+        <v>116903</v>
+      </c>
+      <c r="J101" s="6">
+        <v>134499</v>
+      </c>
+      <c r="K101" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L101" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M101" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="5"/>
+        <v>12831.156000000001</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="9"/>
+        <v>211951.68799999999</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="6"/>
+        <v>12831.156000000001</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="7"/>
+        <v>237614</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I102" s="7">
+        <v>109625</v>
+      </c>
+      <c r="J102" s="6">
+        <v>127989</v>
+      </c>
+      <c r="K102" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L102" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M102" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="5"/>
+        <v>12393.702000000001</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="9"/>
+        <v>204725.59599999999</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="6"/>
+        <v>12393.702000000001</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" s="6">
+        <f t="shared" si="7"/>
+        <v>229513</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I103" s="7">
+        <v>104767</v>
+      </c>
+      <c r="J103" s="6">
+        <v>124746</v>
+      </c>
+      <c r="K103" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L103" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M103" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="5"/>
+        <v>12180.024000000001</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="9"/>
+        <v>201195.95199999999</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="6"/>
+        <v>12180.024000000001</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6">
+        <f t="shared" si="7"/>
+        <v>225556</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I104" s="7">
+        <v>101665</v>
+      </c>
+      <c r="J104" s="6">
+        <v>123891</v>
+      </c>
+      <c r="K104" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L104" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M104" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="5"/>
+        <v>12077.856000000002</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="9"/>
+        <v>199508.288</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>12077.856000000002</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" si="7"/>
+        <v>223664</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I105" s="7">
+        <v>99465</v>
+      </c>
+      <c r="J105" s="6">
+        <v>124199</v>
+      </c>
+      <c r="K105" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L105" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M105" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="5"/>
+        <v>96901.012800000026</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="9"/>
+        <v>1600661.1744000001</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="6"/>
+        <v>96901.012800000026</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="7"/>
+        <v>1794463.2000000002</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I106">
+        <v>755015</v>
+      </c>
+      <c r="J106">
+        <v>1039448.2000000001</v>
+      </c>
+      <c r="K106" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L106" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M106" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="5"/>
+        <v>51572.397600000004</v>
+      </c>
+      <c r="D107">
+        <f>(K107/100)*G107</f>
+        <v>851899.60480000009</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="6"/>
+        <v>51572.397600000004</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="7"/>
+        <v>955044.4</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I107">
+        <v>378826</v>
+      </c>
+      <c r="J107">
+        <v>576218.4</v>
+      </c>
+      <c r="K107" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L107" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M107" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="5"/>
+        <v>19252.940760000001</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="9"/>
+        <v>318030.05848000001</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="6"/>
+        <v>19252.940760000001</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="7"/>
+        <v>356535.94</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I108">
+        <v>129639</v>
+      </c>
+      <c r="J108">
+        <v>226896.94</v>
+      </c>
+      <c r="K108" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L108" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M108" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <f>0.5*(L109/100)*G109</f>
+        <v>1241.4384</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="9"/>
+        <v>20506.7232</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="6"/>
+        <v>1241.4384</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6">
+        <f t="shared" si="7"/>
+        <v>22989.599999999999</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I109">
+        <v>6673</v>
+      </c>
+      <c r="J109">
+        <v>16316.6</v>
+      </c>
+      <c r="K109" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="L109" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="M109" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H110" s="3"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I112" s="7"/>
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I113" s="7"/>
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I114" s="7"/>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I115" s="7"/>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I116" s="7"/>
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I117" s="7"/>
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I118" s="7"/>
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I119" s="7"/>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I120" s="7"/>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I121" s="7"/>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="123" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I123" s="7"/>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I124" s="7"/>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I125" s="7"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I126" s="7"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I127" s="7"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I128" s="7"/>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I129" s="7"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I130" s="7"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I131" s="7"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I132" s="7"/>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I134" s="7"/>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I135" s="7"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I136" s="7"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I137" s="7"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I138" s="7"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I139" s="7"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I140" s="7"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I141" s="7"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I142" s="7"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I143" s="7"/>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I144" s="7"/>
+      <c r="J144" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B445-0F45-AA4E-BB0D-75803854B98D}">
+  <dimension ref="A1:F109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>366840.0675</v>
+      </c>
+      <c r="D2">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E2">
+        <v>366840.0675</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>366840.0675</v>
+      </c>
+      <c r="D3">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E3">
+        <v>366840.0675</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>366840.0675</v>
+      </c>
+      <c r="D4">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E4">
+        <v>366840.0675</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>366840.0675</v>
+      </c>
+      <c r="D5">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E5">
+        <v>366840.0675</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>366840.0675</v>
+      </c>
+      <c r="D6">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E6">
+        <v>366840.0675</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>366840.0675</v>
+      </c>
+      <c r="D7">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E7">
+        <v>366840.0675</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>366840.0675</v>
+      </c>
+      <c r="D8">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E8">
+        <v>366840.0675</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>366840.0675</v>
+      </c>
+      <c r="D9">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E9">
+        <v>366840.0675</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>366840.0675</v>
+      </c>
+      <c r="D10">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E10">
+        <v>366840.0675</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>366840.0675</v>
+      </c>
+      <c r="D11">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E11">
+        <v>366840.0675</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>366840.0675</v>
+      </c>
+      <c r="D12">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E12">
+        <v>366840.0675</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>366840.0675</v>
+      </c>
+      <c r="D13">
+        <v>225378.86499999999</v>
+      </c>
+      <c r="E13">
+        <v>366840.0675</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D14">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E14">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D15">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E15">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D16">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E16">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D17">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E17">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D18">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E18">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D19">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E19">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D20">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E20">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D21">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E21">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D22">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E22">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D23">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E23">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D24">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E24">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="D25">
+        <v>216000.48499999999</v>
+      </c>
+      <c r="E25">
+        <v>351575.25750000001</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D26">
+        <v>218871.715</v>
+      </c>
+      <c r="E26">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D27">
+        <v>218871.715</v>
+      </c>
+      <c r="E27">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D28">
+        <v>218871.715</v>
+      </c>
+      <c r="E28">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D29">
+        <v>218871.715</v>
+      </c>
+      <c r="E29">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D30">
+        <v>218871.715</v>
+      </c>
+      <c r="E30">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D31">
+        <v>218871.715</v>
+      </c>
+      <c r="E31">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D32">
+        <v>218871.715</v>
+      </c>
+      <c r="E32">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D33">
+        <v>218871.715</v>
+      </c>
+      <c r="E33">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D34">
+        <v>218871.715</v>
+      </c>
+      <c r="E34">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D35">
+        <v>218871.715</v>
+      </c>
+      <c r="E35">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D36">
+        <v>218871.715</v>
+      </c>
+      <c r="E36">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="D37">
+        <v>218871.715</v>
+      </c>
+      <c r="E37">
+        <v>356248.64250000002</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D38">
+        <v>227077.68</v>
+      </c>
+      <c r="E38">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D39">
+        <v>227077.68</v>
+      </c>
+      <c r="E39">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D40">
+        <v>227077.68</v>
+      </c>
+      <c r="E40">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D41">
+        <v>227077.68</v>
+      </c>
+      <c r="E41">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D42">
+        <v>227077.68</v>
+      </c>
+      <c r="E42">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D43">
+        <v>227077.68</v>
+      </c>
+      <c r="E43">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D44">
+        <v>227077.68</v>
+      </c>
+      <c r="E44">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D45">
+        <v>227077.68</v>
+      </c>
+      <c r="E45">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D46">
+        <v>227077.68</v>
+      </c>
+      <c r="E46">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D47">
+        <v>227077.68</v>
+      </c>
+      <c r="E47">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D48">
+        <v>227077.68</v>
+      </c>
+      <c r="E48">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="D49">
+        <v>227077.68</v>
+      </c>
+      <c r="E49">
+        <v>369605.16000000003</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>362134.17</v>
+      </c>
+      <c r="D50">
+        <v>222487.65999999997</v>
+      </c>
+      <c r="E50">
+        <v>362134.17</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>191322.25200000001</v>
+      </c>
+      <c r="D51">
+        <v>569207.49599999993</v>
+      </c>
+      <c r="E51">
+        <v>191322.25200000001</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>191950.98</v>
+      </c>
+      <c r="D52">
+        <v>571078.03999999992</v>
+      </c>
+      <c r="E52">
+        <v>191950.98</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>193076.98200000002</v>
+      </c>
+      <c r="D53">
+        <v>574428.03599999996</v>
+      </c>
+      <c r="E53">
+        <v>193076.98200000002</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>194261.073</v>
+      </c>
+      <c r="D54">
+        <v>577950.85399999993</v>
+      </c>
+      <c r="E54">
+        <v>194261.073</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>195691.992</v>
+      </c>
+      <c r="D55">
+        <v>582208.01599999995</v>
+      </c>
+      <c r="E55">
+        <v>195691.992</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>85058.564000000013</v>
+      </c>
+      <c r="D56">
+        <v>813218.87200000009</v>
+      </c>
+      <c r="E56">
+        <v>85058.564000000013</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>85741.135500000004</v>
+      </c>
+      <c r="D57">
+        <v>819744.72900000005</v>
+      </c>
+      <c r="E57">
+        <v>85741.135500000004</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>86540.136000000013</v>
+      </c>
+      <c r="D58">
+        <v>827383.72800000012</v>
+      </c>
+      <c r="E58">
+        <v>86540.136000000013</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>87276.337500000009</v>
+      </c>
+      <c r="D59">
+        <v>834422.32500000007</v>
+      </c>
+      <c r="E59">
+        <v>87276.337500000009</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>87823.190500000012</v>
+      </c>
+      <c r="D60">
+        <v>839650.61900000006</v>
+      </c>
+      <c r="E60">
+        <v>87823.190500000012</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>43099.974999999999</v>
+      </c>
+      <c r="D61">
+        <v>916125.05</v>
+      </c>
+      <c r="E61">
+        <v>43099.974999999999</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>42774.808999999994</v>
+      </c>
+      <c r="D62">
+        <v>909213.38199999998</v>
+      </c>
+      <c r="E62">
+        <v>42774.808999999994</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>41960.603999999999</v>
+      </c>
+      <c r="D63">
+        <v>891906.79200000002</v>
+      </c>
+      <c r="E63">
+        <v>41960.603999999999</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>40731.878999999994</v>
+      </c>
+      <c r="D64">
+        <v>865789.24200000009</v>
+      </c>
+      <c r="E64">
+        <v>40731.878999999994</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>39296.625</v>
+      </c>
+      <c r="D65">
+        <v>835281.75</v>
+      </c>
+      <c r="E65">
+        <v>39296.625</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>32662.601000000006</v>
+      </c>
+      <c r="D66">
+        <v>817447.79799999995</v>
+      </c>
+      <c r="E66">
+        <v>32662.601000000006</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>31748.220000000005</v>
+      </c>
+      <c r="D67">
+        <v>794563.55999999994</v>
+      </c>
+      <c r="E67">
+        <v>31748.220000000005</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>31209.278000000006</v>
+      </c>
+      <c r="D68">
+        <v>781075.4439999999</v>
+      </c>
+      <c r="E68">
+        <v>31209.278000000006</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>30942.767000000003</v>
+      </c>
+      <c r="D69">
+        <v>774405.4659999999</v>
+      </c>
+      <c r="E69">
+        <v>30942.767000000003</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>30757.693000000003</v>
+      </c>
+      <c r="D70">
+        <v>769773.61399999994</v>
+      </c>
+      <c r="E70">
+        <v>30757.693000000003</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>29193.566999999999</v>
+      </c>
+      <c r="D71">
+        <v>763966.86600000004</v>
+      </c>
+      <c r="E71">
+        <v>29193.566999999999</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>28664.474999999999</v>
+      </c>
+      <c r="D72">
+        <v>750121.05</v>
+      </c>
+      <c r="E72">
+        <v>28664.474999999999</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>27850.921499999997</v>
+      </c>
+      <c r="D73">
+        <v>728831.15700000001</v>
+      </c>
+      <c r="E73">
+        <v>27850.921499999997</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>26845.135499999997</v>
+      </c>
+      <c r="D74">
+        <v>702510.72900000005</v>
+      </c>
+      <c r="E74">
+        <v>26845.135499999997</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>25779.993499999997</v>
+      </c>
+      <c r="D75">
+        <v>674637.01300000004</v>
+      </c>
+      <c r="E75">
+        <v>25779.993499999997</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>26924.9365</v>
+      </c>
+      <c r="D76">
+        <v>645499.12699999998</v>
+      </c>
+      <c r="E76">
+        <v>26924.9365</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>26100.536</v>
+      </c>
+      <c r="D77">
+        <v>625734.92799999996</v>
+      </c>
+      <c r="E77">
+        <v>26100.536</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>25559.1875</v>
+      </c>
+      <c r="D78">
+        <v>612756.625</v>
+      </c>
+      <c r="E78">
+        <v>25559.1875</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>25207.721000000001</v>
+      </c>
+      <c r="D79">
+        <v>604330.55799999996</v>
+      </c>
+      <c r="E79">
+        <v>25207.721000000001</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>24909.461500000001</v>
+      </c>
+      <c r="D80">
+        <v>597180.07699999993</v>
+      </c>
+      <c r="E80">
+        <v>24909.461500000001</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>28681.424999999999</v>
+      </c>
+      <c r="D81">
+        <v>580002.15</v>
+      </c>
+      <c r="E81">
+        <v>28681.424999999999</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>28143.945</v>
+      </c>
+      <c r="D82">
+        <v>569133.11</v>
+      </c>
+      <c r="E82">
+        <v>28143.945</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>27430.244999999999</v>
+      </c>
+      <c r="D83">
+        <v>554700.51</v>
+      </c>
+      <c r="E83">
+        <v>27430.244999999999</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>26577</v>
+      </c>
+      <c r="D84">
+        <v>537446</v>
+      </c>
+      <c r="E84">
+        <v>26577</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>25688.204999999998</v>
+      </c>
+      <c r="D85">
+        <v>519472.59</v>
+      </c>
+      <c r="E85">
+        <v>25688.204999999998</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>26182.427500000002</v>
+      </c>
+      <c r="D86">
+        <v>498844.14500000002</v>
+      </c>
+      <c r="E86">
+        <v>26182.427500000002</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>25193.002499999999</v>
+      </c>
+      <c r="D87">
+        <v>479992.995</v>
+      </c>
+      <c r="E87">
+        <v>25193.002499999999</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>24161.112499999999</v>
+      </c>
+      <c r="D88">
+        <v>460332.77500000002</v>
+      </c>
+      <c r="E88">
+        <v>24161.112499999999</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>23106.09</v>
+      </c>
+      <c r="D89">
+        <v>440231.82</v>
+      </c>
+      <c r="E89">
+        <v>23106.09</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>22038.005000000001</v>
+      </c>
+      <c r="D90">
+        <v>419881.99</v>
+      </c>
+      <c r="E90">
+        <v>22038.005000000001</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>20321.466</v>
+      </c>
+      <c r="D91">
+        <v>401128.06799999997</v>
+      </c>
+      <c r="E91">
+        <v>20321.466</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>19344.150000000001</v>
+      </c>
+      <c r="D92">
+        <v>381836.69999999995</v>
+      </c>
+      <c r="E92">
+        <v>19344.150000000001</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>18426.358</v>
+      </c>
+      <c r="D93">
+        <v>363720.28399999999</v>
+      </c>
+      <c r="E93">
+        <v>18426.358</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>17557.234</v>
+      </c>
+      <c r="D94">
+        <v>346564.53199999995</v>
+      </c>
+      <c r="E94">
+        <v>17557.234</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>16733.374</v>
+      </c>
+      <c r="D95">
+        <v>330302.25199999998</v>
+      </c>
+      <c r="E95">
+        <v>16733.374</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>18688.050000000003</v>
+      </c>
+      <c r="D96">
+        <v>308698.90000000002</v>
+      </c>
+      <c r="E96">
+        <v>18688.050000000003</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>17703.252</v>
+      </c>
+      <c r="D97">
+        <v>292431.49599999998</v>
+      </c>
+      <c r="E97">
+        <v>17703.252</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>16668.342000000001</v>
+      </c>
+      <c r="D98">
+        <v>275336.31599999999</v>
+      </c>
+      <c r="E98">
+        <v>16668.342000000001</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>15620.796000000002</v>
+      </c>
+      <c r="D99">
+        <v>258032.408</v>
+      </c>
+      <c r="E99">
+        <v>15620.796000000002</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>14553.108000000002</v>
+      </c>
+      <c r="D100">
+        <v>240395.78400000001</v>
+      </c>
+      <c r="E100">
+        <v>14553.108000000002</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>13575.708000000002</v>
+      </c>
+      <c r="D101">
+        <v>224250.584</v>
+      </c>
+      <c r="E101">
+        <v>13575.708000000002</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>12831.156000000001</v>
+      </c>
+      <c r="D102">
+        <v>211951.68799999999</v>
+      </c>
+      <c r="E102">
+        <v>12831.156000000001</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>12393.702000000001</v>
+      </c>
+      <c r="D103">
+        <v>204725.59599999999</v>
+      </c>
+      <c r="E103">
+        <v>12393.702000000001</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>12180.024000000001</v>
+      </c>
+      <c r="D104">
+        <v>201195.95199999999</v>
+      </c>
+      <c r="E104">
+        <v>12180.024000000001</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>12077.856000000002</v>
+      </c>
+      <c r="D105">
+        <v>199508.288</v>
+      </c>
+      <c r="E105">
+        <v>12077.856000000002</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>96901.012800000026</v>
+      </c>
+      <c r="D106">
+        <v>1600661.1744000001</v>
+      </c>
+      <c r="E106">
+        <v>96901.012800000026</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>51572.397600000004</v>
+      </c>
+      <c r="D107">
+        <v>851899.60480000009</v>
+      </c>
+      <c r="E107">
+        <v>51572.397600000004</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>19252.940760000001</v>
+      </c>
+      <c r="D108">
+        <v>318030.05848000001</v>
+      </c>
+      <c r="E108">
+        <v>19252.940760000001</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1241.4384</v>
+      </c>
+      <c r="D109">
+        <v>20506.7232</v>
+      </c>
+      <c r="E109">
+        <v>1241.4384</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3AC05B-88A0-1047-9B5D-547755B7014B}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="4">
+        <v>91.4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4">
+        <v>92.3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="4">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>

--- a/DataWorkbookRubella.xlsx
+++ b/DataWorkbookRubella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB2010-1A2F-C74C-8927-DE2A146DD7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D48973C-AEAC-E441-9340-6A90CF2EA3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{F270E22A-AF68-0948-A29A-BD37CB605717}"/>
   </bookViews>
@@ -1273,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9811A8AF-EDA4-A54D-892C-4381AE7679AA}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A110" sqref="A110:B110"/>
     </sheetView>
   </sheetViews>
@@ -7319,14 +7319,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B445-0F45-AA4E-BB0D-75803854B98D}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="8" t="s">

--- a/DataWorkbookRubella.xlsx
+++ b/DataWorkbookRubella.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D48973C-AEAC-E441-9340-6A90CF2EA3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23AC5BA-4ED5-B541-85FC-6AE1F3083066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{F270E22A-AF68-0948-A29A-BD37CB605717}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{F270E22A-AF68-0948-A29A-BD37CB605717}"/>
   </bookViews>
   <sheets>
     <sheet name="coverage_table " sheetId="1" r:id="rId1"/>
@@ -2163,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1259BB-28D2-D444-9A98-E43CED16CD11}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,22 +2223,22 @@
       </c>
       <c r="C2">
         <f>0.5*(L2/100)*G2</f>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D2">
         <f>(K2/100)*G2</f>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E2">
         <f>0.5*(L2/100)*G2</f>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <f>I2+J2</f>
-        <v>959059</v>
+        <f>(I2+J2)/12</f>
+        <v>79921.583333333328</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -2269,22 +2269,22 @@
       </c>
       <c r="C3">
         <f>0.5*(L3/100)*G3</f>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D3">
         <f>(K3/100)*G3</f>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">0.5*(L3/100)*G3</f>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" si="1">I3+J3</f>
-        <v>959059</v>
+        <f t="shared" ref="G3:G49" si="1">(I3+J3)/12</f>
+        <v>79921.583333333328</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -2314,23 +2314,23 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:C66" si="3">0.5*(L4/100)*G4</f>
-        <v>366840.0675</v>
+        <f t="shared" ref="C4:C66" si="3">0.5*(L4/100)*G4</f>
+        <v>30570.005624999998</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D67" si="4">(K4/100)*G4</f>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D5">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
@@ -2407,22 +2407,22 @@
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D6">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
@@ -2453,22 +2453,22 @@
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
@@ -2499,22 +2499,22 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D8">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
@@ -2545,22 +2545,22 @@
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
@@ -2591,22 +2591,22 @@
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -2637,22 +2637,22 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -2683,22 +2683,22 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>959059</v>
+        <v>79921.583333333328</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
@@ -2729,22 +2729,22 @@
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
-        <v>225378.86499999999</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>366840.0675</v>
+        <v>30570.005624999998</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>959059</v>
+        <f>(I13+J13)/12</f>
+        <v>79921.583333333328</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
@@ -2775,22 +2775,22 @@
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>23</v>
@@ -2821,22 +2821,22 @@
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>24</v>
@@ -2867,22 +2867,22 @@
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>25</v>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>26</v>
@@ -2959,22 +2959,22 @@
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>27</v>
@@ -3005,22 +3005,22 @@
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>28</v>
@@ -3051,22 +3051,22 @@
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>29</v>
@@ -3097,22 +3097,22 @@
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>30</v>
@@ -3143,22 +3143,22 @@
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>31</v>
@@ -3189,22 +3189,22 @@
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
@@ -3235,22 +3235,22 @@
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>33</v>
@@ -3281,22 +3281,22 @@
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>216000.48499999999</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>351575.25750000001</v>
+        <v>29297.938125000001</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
-        <v>919151</v>
+        <v>76595.916666666672</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>34</v>
@@ -3327,22 +3327,22 @@
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>35</v>
@@ -3373,22 +3373,22 @@
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>36</v>
@@ -3419,22 +3419,22 @@
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>37</v>
@@ -3465,22 +3465,22 @@
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>38</v>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>39</v>
@@ -3557,22 +3557,22 @@
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>40</v>
@@ -3603,22 +3603,22 @@
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>41</v>
@@ -3649,22 +3649,22 @@
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>42</v>
@@ -3695,22 +3695,22 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>43</v>
@@ -3741,22 +3741,22 @@
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>44</v>
@@ -3787,22 +3787,22 @@
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>45</v>
@@ -3833,22 +3833,22 @@
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>218871.715</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>356248.64250000002</v>
+        <v>29687.386875</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
-        <v>931369</v>
+        <v>77614.083333333328</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>46</v>
@@ -3879,22 +3879,22 @@
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>47</v>
@@ -3925,22 +3925,22 @@
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>48</v>
@@ -3971,22 +3971,22 @@
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>49</v>
@@ -4017,22 +4017,22 @@
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>50</v>
@@ -4063,22 +4063,22 @@
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>51</v>
@@ -4109,22 +4109,22 @@
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>52</v>
@@ -4155,22 +4155,22 @@
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>53</v>
@@ -4201,22 +4201,22 @@
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>54</v>
@@ -4247,22 +4247,22 @@
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>55</v>
@@ -4293,22 +4293,22 @@
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>56</v>
@@ -4339,22 +4339,22 @@
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>57</v>
@@ -4385,22 +4385,22 @@
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>227077.68</v>
+        <v>18923.14</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>369605.16000000003</v>
+        <v>30800.43</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
-        <v>966288</v>
+        <v>80524</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>58</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G3:G66" si="5">I50+J50</f>
         <v>946756</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>951852</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>954980</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>960582</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>966473</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>973592</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>983336</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>991227</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1000464</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1008975</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1015297</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1002325</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>994763</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>975828</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>947253</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>913875</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>882773</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C109" si="5">0.5*(L67/100)*G67</f>
+        <f t="shared" ref="C67:C108" si="6">0.5*(L67/100)*G67</f>
         <v>31748.220000000005</v>
       </c>
       <c r="D67">
@@ -5220,14 +5220,14 @@
         <v>794563.55999999994</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E109" si="6">0.5*(L67/100)*G67</f>
+        <f t="shared" ref="E67:E109" si="7">0.5*(L67/100)*G67</f>
         <v>31748.220000000005</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G109" si="7">I67+J67</f>
+        <f t="shared" ref="G67:G109" si="8">I67+J67</f>
         <v>858060</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -5246,7 +5246,7 @@
         <v>7.4</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M109" si="8">SUM(C67:E67)-G67</f>
+        <f t="shared" ref="M67:M109" si="9">SUM(C67:E67)-G67</f>
         <v>0</v>
       </c>
     </row>
@@ -5258,22 +5258,22 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="5"/>
-        <v>31209.278000000006</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D109" si="9">(K68/100)*G68</f>
-        <v>781075.4439999999</v>
-      </c>
-      <c r="E68">
         <f t="shared" si="6"/>
         <v>31209.278000000006</v>
       </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D109" si="10">(K68/100)*G68</f>
+        <v>781075.4439999999</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>31209.278000000006</v>
+      </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>843494</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -5292,7 +5292,7 @@
         <v>7.4</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5304,22 +5304,22 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <f t="shared" si="5"/>
-        <v>30942.767000000003</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="9"/>
-        <v>774405.4659999999</v>
-      </c>
-      <c r="E69">
         <f t="shared" si="6"/>
         <v>30942.767000000003</v>
       </c>
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>774405.4659999999</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>30942.767000000003</v>
+      </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>836291</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -5338,7 +5338,7 @@
         <v>7.4</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5350,22 +5350,22 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="5"/>
-        <v>30757.693000000003</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="9"/>
-        <v>769773.61399999994</v>
-      </c>
-      <c r="E70">
         <f t="shared" si="6"/>
         <v>30757.693000000003</v>
       </c>
+      <c r="D70">
+        <f t="shared" si="10"/>
+        <v>769773.61399999994</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>30757.693000000003</v>
+      </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>831289</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -5384,7 +5384,7 @@
         <v>7.4</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5396,22 +5396,22 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" si="5"/>
-        <v>29193.566999999999</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="9"/>
-        <v>763966.86600000004</v>
-      </c>
-      <c r="E71">
         <f t="shared" si="6"/>
         <v>29193.566999999999</v>
       </c>
+      <c r="D71">
+        <f t="shared" si="10"/>
+        <v>763966.86600000004</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>29193.566999999999</v>
+      </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>822354</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -5430,7 +5430,7 @@
         <v>7.1</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5442,22 +5442,22 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <f t="shared" si="5"/>
-        <v>28664.474999999999</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="9"/>
-        <v>750121.05</v>
-      </c>
-      <c r="E72">
         <f t="shared" si="6"/>
         <v>28664.474999999999</v>
       </c>
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>750121.05</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>28664.474999999999</v>
+      </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>807450</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -5476,7 +5476,7 @@
         <v>7.1</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5488,22 +5488,22 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="5"/>
-        <v>27850.921499999997</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="9"/>
-        <v>728831.15700000001</v>
-      </c>
-      <c r="E73">
         <f t="shared" si="6"/>
         <v>27850.921499999997</v>
       </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>728831.15700000001</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>27850.921499999997</v>
+      </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>784533</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -5522,7 +5522,7 @@
         <v>7.1</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5534,22 +5534,22 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="5"/>
-        <v>26845.135499999997</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="9"/>
-        <v>702510.72900000005</v>
-      </c>
-      <c r="E74">
         <f t="shared" si="6"/>
         <v>26845.135499999997</v>
       </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>702510.72900000005</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>26845.135499999997</v>
+      </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>756201</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -5568,7 +5568,7 @@
         <v>7.1</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5580,22 +5580,22 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" si="5"/>
-        <v>25779.993499999997</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="9"/>
-        <v>674637.01300000004</v>
-      </c>
-      <c r="E75">
         <f t="shared" si="6"/>
         <v>25779.993499999997</v>
       </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>674637.01300000004</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>25779.993499999997</v>
+      </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>726197</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -5614,7 +5614,7 @@
         <v>7.1</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5626,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" si="5"/>
-        <v>26924.9365</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="9"/>
-        <v>645499.12699999998</v>
-      </c>
-      <c r="E76">
         <f t="shared" si="6"/>
         <v>26924.9365</v>
       </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>645499.12699999998</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>26924.9365</v>
+      </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>699349</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -5660,7 +5660,7 @@
         <v>7.7</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5672,22 +5672,22 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="5"/>
-        <v>26100.536</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="9"/>
-        <v>625734.92799999996</v>
-      </c>
-      <c r="E77">
         <f t="shared" si="6"/>
         <v>26100.536</v>
       </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>625734.92799999996</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>26100.536</v>
+      </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>677936</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -5706,7 +5706,7 @@
         <v>7.7</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5718,22 +5718,22 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <f t="shared" si="5"/>
-        <v>25559.1875</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="9"/>
-        <v>612756.625</v>
-      </c>
-      <c r="E78">
         <f t="shared" si="6"/>
         <v>25559.1875</v>
       </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>612756.625</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>25559.1875</v>
+      </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>663875</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -5752,7 +5752,7 @@
         <v>7.7</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5764,22 +5764,22 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" si="5"/>
-        <v>25207.721000000001</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="9"/>
-        <v>604330.55799999996</v>
-      </c>
-      <c r="E79">
         <f t="shared" si="6"/>
         <v>25207.721000000001</v>
       </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>604330.55799999996</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>25207.721000000001</v>
+      </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>654746</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -5798,7 +5798,7 @@
         <v>7.7</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5810,22 +5810,22 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="5"/>
-        <v>24909.461500000001</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="9"/>
-        <v>597180.07699999993</v>
-      </c>
-      <c r="E80">
         <f t="shared" si="6"/>
         <v>24909.461500000001</v>
       </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>597180.07699999993</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>24909.461500000001</v>
+      </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>646999</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -5844,7 +5844,7 @@
         <v>7.7</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5856,22 +5856,22 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <f t="shared" si="5"/>
-        <v>28681.424999999999</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="9"/>
-        <v>580002.15</v>
-      </c>
-      <c r="E81">
         <f t="shared" si="6"/>
         <v>28681.424999999999</v>
       </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>580002.15</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>28681.424999999999</v>
+      </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>637365</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -5890,7 +5890,7 @@
         <v>9</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5902,22 +5902,22 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" si="5"/>
-        <v>28143.945</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="9"/>
-        <v>569133.11</v>
-      </c>
-      <c r="E82">
         <f t="shared" si="6"/>
         <v>28143.945</v>
       </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>569133.11</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>28143.945</v>
+      </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>625421</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -5936,7 +5936,7 @@
         <v>9</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5948,22 +5948,22 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="5"/>
-        <v>27430.244999999999</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="9"/>
-        <v>554700.51</v>
-      </c>
-      <c r="E83">
         <f t="shared" si="6"/>
         <v>27430.244999999999</v>
       </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>554700.51</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="7"/>
+        <v>27430.244999999999</v>
+      </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>609561</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -5982,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5994,22 +5994,22 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" si="5"/>
-        <v>26577</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="9"/>
-        <v>537446</v>
-      </c>
-      <c r="E84">
         <f t="shared" si="6"/>
         <v>26577</v>
       </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>537446</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>26577</v>
+      </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>590600</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -6028,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6040,22 +6040,22 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" si="5"/>
-        <v>25688.204999999998</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="9"/>
-        <v>519472.59</v>
-      </c>
-      <c r="E85">
         <f t="shared" si="6"/>
         <v>25688.204999999998</v>
       </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>519472.59</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>25688.204999999998</v>
+      </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>570849</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -6074,7 +6074,7 @@
         <v>9</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="5"/>
-        <v>26182.427500000002</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="9"/>
-        <v>498844.14500000002</v>
-      </c>
-      <c r="E86">
         <f t="shared" si="6"/>
         <v>26182.427500000002</v>
       </c>
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>498844.14500000002</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>26182.427500000002</v>
+      </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>551209</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -6120,7 +6120,7 @@
         <v>9.5</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6132,22 +6132,22 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <f t="shared" si="5"/>
-        <v>25193.002499999999</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="9"/>
-        <v>479992.995</v>
-      </c>
-      <c r="E87">
         <f t="shared" si="6"/>
         <v>25193.002499999999</v>
       </c>
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>479992.995</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>25193.002499999999</v>
+      </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>530379</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -6166,7 +6166,7 @@
         <v>9.5</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6178,22 +6178,22 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <f t="shared" si="5"/>
-        <v>24161.112499999999</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="9"/>
-        <v>460332.77500000002</v>
-      </c>
-      <c r="E88">
         <f t="shared" si="6"/>
         <v>24161.112499999999</v>
       </c>
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>460332.77500000002</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>24161.112499999999</v>
+      </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>508655</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -6212,7 +6212,7 @@
         <v>9.5</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6224,22 +6224,22 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <f t="shared" si="5"/>
-        <v>23106.09</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="9"/>
-        <v>440231.82</v>
-      </c>
-      <c r="E89">
         <f t="shared" si="6"/>
         <v>23106.09</v>
       </c>
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>440231.82</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>23106.09</v>
+      </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>486444</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -6258,7 +6258,7 @@
         <v>9.5</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6270,22 +6270,22 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <f t="shared" si="5"/>
-        <v>22038.005000000001</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="9"/>
-        <v>419881.99</v>
-      </c>
-      <c r="E90">
         <f t="shared" si="6"/>
         <v>22038.005000000001</v>
       </c>
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>419881.99</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>22038.005000000001</v>
+      </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>463958</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -6304,7 +6304,7 @@
         <v>9.5</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6316,22 +6316,22 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <f t="shared" si="5"/>
-        <v>20321.466</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="9"/>
-        <v>401128.06799999997</v>
-      </c>
-      <c r="E91">
         <f t="shared" si="6"/>
         <v>20321.466</v>
       </c>
+      <c r="D91">
+        <f t="shared" si="10"/>
+        <v>401128.06799999997</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>20321.466</v>
+      </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>441771</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -6350,7 +6350,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6362,22 +6362,22 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <f t="shared" si="5"/>
-        <v>19344.150000000001</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="9"/>
-        <v>381836.69999999995</v>
-      </c>
-      <c r="E92">
         <f t="shared" si="6"/>
         <v>19344.150000000001</v>
       </c>
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>381836.69999999995</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>19344.150000000001</v>
+      </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>420525</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -6396,7 +6396,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6408,22 +6408,22 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" si="5"/>
-        <v>18426.358</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="9"/>
-        <v>363720.28399999999</v>
-      </c>
-      <c r="E93">
         <f t="shared" si="6"/>
         <v>18426.358</v>
       </c>
+      <c r="D93">
+        <f t="shared" si="10"/>
+        <v>363720.28399999999</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>18426.358</v>
+      </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>400573</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -6442,7 +6442,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6454,22 +6454,22 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" si="5"/>
-        <v>17557.234</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="9"/>
-        <v>346564.53199999995</v>
-      </c>
-      <c r="E94">
         <f t="shared" si="6"/>
         <v>17557.234</v>
       </c>
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>346564.53199999995</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>17557.234</v>
+      </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>381679</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -6488,7 +6488,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6500,22 +6500,22 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <f t="shared" si="5"/>
-        <v>16733.374</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="9"/>
-        <v>330302.25199999998</v>
-      </c>
-      <c r="E95">
         <f t="shared" si="6"/>
         <v>16733.374</v>
       </c>
+      <c r="D95">
+        <f t="shared" si="10"/>
+        <v>330302.25199999998</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="7"/>
+        <v>16733.374</v>
+      </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>363769</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -6534,7 +6534,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6546,22 +6546,22 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" si="5"/>
-        <v>18688.050000000003</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="9"/>
-        <v>308698.90000000002</v>
-      </c>
-      <c r="E96">
         <f t="shared" si="6"/>
         <v>18688.050000000003</v>
       </c>
+      <c r="D96">
+        <f t="shared" si="10"/>
+        <v>308698.90000000002</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="7"/>
+        <v>18688.050000000003</v>
+      </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>346075</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -6580,7 +6580,7 @@
         <v>10.8</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6592,22 +6592,22 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <f t="shared" si="5"/>
-        <v>17703.252</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="9"/>
-        <v>292431.49599999998</v>
-      </c>
-      <c r="E97">
         <f t="shared" si="6"/>
         <v>17703.252</v>
       </c>
+      <c r="D97">
+        <f t="shared" si="10"/>
+        <v>292431.49599999998</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="7"/>
+        <v>17703.252</v>
+      </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>327838</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -6626,7 +6626,7 @@
         <v>10.8</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6638,22 +6638,22 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" si="5"/>
-        <v>16668.342000000001</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="9"/>
-        <v>275336.31599999999</v>
-      </c>
-      <c r="E98">
         <f t="shared" si="6"/>
         <v>16668.342000000001</v>
       </c>
+      <c r="D98">
+        <f t="shared" si="10"/>
+        <v>275336.31599999999</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="7"/>
+        <v>16668.342000000001</v>
+      </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>308673</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -6672,7 +6672,7 @@
         <v>10.8</v>
       </c>
       <c r="M98" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6684,22 +6684,22 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <f t="shared" si="5"/>
-        <v>15620.796000000002</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="9"/>
-        <v>258032.408</v>
-      </c>
-      <c r="E99">
         <f t="shared" si="6"/>
         <v>15620.796000000002</v>
       </c>
+      <c r="D99">
+        <f t="shared" si="10"/>
+        <v>258032.408</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="7"/>
+        <v>15620.796000000002</v>
+      </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>289274</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -6718,7 +6718,7 @@
         <v>10.8</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6730,22 +6730,22 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <f t="shared" si="5"/>
-        <v>14553.108000000002</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="9"/>
-        <v>240395.78400000001</v>
-      </c>
-      <c r="E100">
         <f t="shared" si="6"/>
         <v>14553.108000000002</v>
       </c>
+      <c r="D100">
+        <f t="shared" si="10"/>
+        <v>240395.78400000001</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="7"/>
+        <v>14553.108000000002</v>
+      </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>269502</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -6764,7 +6764,7 @@
         <v>10.8</v>
       </c>
       <c r="M100" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <f t="shared" si="5"/>
-        <v>13575.708000000002</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="9"/>
-        <v>224250.584</v>
-      </c>
-      <c r="E101">
         <f t="shared" si="6"/>
         <v>13575.708000000002</v>
       </c>
+      <c r="D101">
+        <f t="shared" si="10"/>
+        <v>224250.584</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="7"/>
+        <v>13575.708000000002</v>
+      </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>251402</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -6810,7 +6810,7 @@
         <v>10.8</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6822,22 +6822,22 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <f t="shared" si="5"/>
-        <v>12831.156000000001</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="9"/>
-        <v>211951.68799999999</v>
-      </c>
-      <c r="E102">
         <f t="shared" si="6"/>
         <v>12831.156000000001</v>
       </c>
+      <c r="D102">
+        <f t="shared" si="10"/>
+        <v>211951.68799999999</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="7"/>
+        <v>12831.156000000001</v>
+      </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>237614</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -6856,7 +6856,7 @@
         <v>10.8</v>
       </c>
       <c r="M102" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6868,22 +6868,22 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <f t="shared" si="5"/>
-        <v>12393.702000000001</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="9"/>
-        <v>204725.59599999999</v>
-      </c>
-      <c r="E103">
         <f t="shared" si="6"/>
         <v>12393.702000000001</v>
       </c>
+      <c r="D103">
+        <f t="shared" si="10"/>
+        <v>204725.59599999999</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="7"/>
+        <v>12393.702000000001</v>
+      </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>229513</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -6902,7 +6902,7 @@
         <v>10.8</v>
       </c>
       <c r="M103" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6914,22 +6914,22 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <f t="shared" si="5"/>
-        <v>12180.024000000001</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="9"/>
-        <v>201195.95199999999</v>
-      </c>
-      <c r="E104">
         <f t="shared" si="6"/>
         <v>12180.024000000001</v>
       </c>
+      <c r="D104">
+        <f t="shared" si="10"/>
+        <v>201195.95199999999</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="7"/>
+        <v>12180.024000000001</v>
+      </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>225556</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -6948,7 +6948,7 @@
         <v>10.8</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6960,22 +6960,22 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <f t="shared" si="5"/>
-        <v>12077.856000000002</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="9"/>
-        <v>199508.288</v>
-      </c>
-      <c r="E105">
         <f t="shared" si="6"/>
         <v>12077.856000000002</v>
       </c>
+      <c r="D105">
+        <f t="shared" si="10"/>
+        <v>199508.288</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="7"/>
+        <v>12077.856000000002</v>
+      </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>223664</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -6994,7 +6994,7 @@
         <v>10.8</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7006,22 +7006,22 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <f t="shared" si="5"/>
-        <v>96901.012800000026</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="9"/>
-        <v>1600661.1744000001</v>
-      </c>
-      <c r="E106">
         <f t="shared" si="6"/>
         <v>96901.012800000026</v>
       </c>
+      <c r="D106">
+        <f t="shared" si="10"/>
+        <v>1600661.1744000001</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="7"/>
+        <v>96901.012800000026</v>
+      </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1794463.2000000002</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -7040,7 +7040,7 @@
         <v>10.8</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51572.397600000004</v>
       </c>
       <c r="D107">
@@ -7060,14 +7060,14 @@
         <v>851899.60480000009</v>
       </c>
       <c r="E107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51572.397600000004</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>955044.4</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -7086,7 +7086,7 @@
         <v>10.8</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7098,22 +7098,22 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <f t="shared" si="5"/>
-        <v>19252.940760000001</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="9"/>
-        <v>318030.05848000001</v>
-      </c>
-      <c r="E108">
         <f t="shared" si="6"/>
         <v>19252.940760000001</v>
       </c>
+      <c r="D108">
+        <f t="shared" si="10"/>
+        <v>318030.05848000001</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="7"/>
+        <v>19252.940760000001</v>
+      </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>356535.94</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -7132,7 +7132,7 @@
         <v>10.8</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7148,18 +7148,18 @@
         <v>1241.4384</v>
       </c>
       <c r="D109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20506.7232</v>
       </c>
       <c r="E109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1241.4384</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22989.599999999999</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -7178,7 +7178,7 @@
         <v>10.8</v>
       </c>
       <c r="M109" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7319,8 +7319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B445-0F45-AA4E-BB0D-75803854B98D}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataWorkbookRubella.xlsx
+++ b/DataWorkbookRubella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23AC5BA-4ED5-B541-85FC-6AE1F3083066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62143C7E-05F1-254C-B492-B29D98D150BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{F270E22A-AF68-0948-A29A-BD37CB605717}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="149">
   <si>
     <t>Year</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>new cats</t>
   </si>
 </sst>
 </file>
@@ -1271,887 +1274,1214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9811A8AF-EDA4-A54D-892C-4381AE7679AA}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:B110"/>
+      <selection sqref="A1:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="3"/>
     </row>
   </sheetData>
@@ -2161,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1259BB-28D2-D444-9A98-E43CED16CD11}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2173,7 +2503,7 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>125</v>
       </c>
@@ -2213,8 +2543,11 @@
       <c r="M1" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2222,16 +2555,15 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>0.5*(L2/100)*G2</f>
-        <v>30570.005624999998</v>
+        <f>(L2/100)*G2</f>
+        <v>61140.011249999996</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <f>(K2/100)*G2</f>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E2">
-        <f>0.5*(L2/100)*G2</f>
-        <v>30570.005624999998</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2257,10 +2589,13 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(C2:E2)-G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2268,16 +2603,15 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>0.5*(L3/100)*G3</f>
-        <v>30570.005624999998</v>
+        <f t="shared" ref="C3:C66" si="0">(L3/100)*G3</f>
+        <v>61140.011249999996</v>
       </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <f>(K3/100)*G3</f>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">0.5*(L3/100)*G3</f>
-        <v>30570.005624999998</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2303,10 +2637,13 @@
       </c>
       <c r="M3" s="6">
         <f t="shared" ref="M3:M66" si="2">SUM(C3:E3)-G3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2314,16 +2651,15 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C66" si="3">0.5*(L4/100)*G4</f>
-        <v>30570.005624999998</v>
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="4">(K4/100)*G4</f>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E3:E66" si="3">(K4/100)*G4</f>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2349,10 +2685,13 @@
       </c>
       <c r="M4" s="6">
         <f>SUM(C4:E4)-G4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2360,16 +2699,15 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2395,10 +2733,13 @@
       </c>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2406,16 +2747,15 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2441,10 +2781,13 @@
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2452,16 +2795,15 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2487,10 +2829,13 @@
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2498,16 +2843,15 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2533,10 +2877,13 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2544,16 +2891,15 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2579,10 +2925,13 @@
       </c>
       <c r="M9" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2590,16 +2939,15 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2625,10 +2973,13 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2636,16 +2987,15 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2671,10 +3021,13 @@
       </c>
       <c r="M11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2682,16 +3035,15 @@
         <v>0</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2717,10 +3069,13 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2728,16 +3083,15 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>61140.011249999996</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="3"/>
-        <v>30570.005624999998</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="4"/>
         <v>18781.572083333333</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>30570.005624999998</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2763,10 +3117,13 @@
       </c>
       <c r="M13" s="6">
         <f>SUM(C13:E13)-G13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2774,16 +3131,15 @@
         <v>0</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2809,10 +3165,13 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2820,16 +3179,15 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2855,10 +3213,13 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2866,16 +3227,15 @@
         <v>0</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2901,10 +3261,13 @@
       </c>
       <c r="M16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2912,16 +3275,15 @@
         <v>0</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2947,10 +3309,13 @@
       </c>
       <c r="M17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2958,16 +3323,15 @@
         <v>0</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2993,10 +3357,13 @@
       </c>
       <c r="M18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3004,16 +3371,15 @@
         <v>0</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3039,10 +3405,13 @@
       </c>
       <c r="M19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3050,16 +3419,15 @@
         <v>0</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3085,10 +3453,13 @@
       </c>
       <c r="M20" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3096,16 +3467,15 @@
         <v>0</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3131,10 +3501,13 @@
       </c>
       <c r="M21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3142,16 +3515,15 @@
         <v>0</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3177,10 +3549,13 @@
       </c>
       <c r="M22" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3188,16 +3563,15 @@
         <v>0</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3223,10 +3597,13 @@
       </c>
       <c r="M23" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3234,16 +3611,15 @@
         <v>0</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3269,10 +3645,13 @@
       </c>
       <c r="M24" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3280,16 +3659,15 @@
         <v>0</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>58595.876250000001</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="3"/>
-        <v>29297.938125000001</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="4"/>
         <v>18000.040416666667</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>29297.938125000001</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3315,10 +3693,13 @@
       </c>
       <c r="M25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3326,16 +3707,15 @@
         <v>0</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3361,10 +3741,13 @@
       </c>
       <c r="M26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3372,16 +3755,15 @@
         <v>0</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3407,10 +3789,13 @@
       </c>
       <c r="M27" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3418,16 +3803,15 @@
         <v>0</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3453,10 +3837,13 @@
       </c>
       <c r="M28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3464,16 +3851,15 @@
         <v>0</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3499,10 +3885,13 @@
       </c>
       <c r="M29" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3510,16 +3899,15 @@
         <v>0</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3545,10 +3933,13 @@
       </c>
       <c r="M30" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3556,16 +3947,15 @@
         <v>0</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3591,10 +3981,13 @@
       </c>
       <c r="M31" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3602,16 +3995,15 @@
         <v>0</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3637,10 +4029,13 @@
       </c>
       <c r="M32" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3648,16 +4043,15 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3683,10 +4077,13 @@
       </c>
       <c r="M33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3694,16 +4091,15 @@
         <v>0</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3729,10 +4125,13 @@
       </c>
       <c r="M34" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3740,16 +4139,15 @@
         <v>0</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3775,10 +4173,13 @@
       </c>
       <c r="M35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3786,16 +4187,15 @@
         <v>0</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3821,10 +4221,13 @@
       </c>
       <c r="M36" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3832,16 +4235,15 @@
         <v>0</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
+        <v>59374.77375</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="3"/>
-        <v>29687.386875</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="4"/>
         <v>18239.309583333332</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>29687.386875</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3867,10 +4269,13 @@
       </c>
       <c r="M37" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3878,16 +4283,15 @@
         <v>0</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3913,10 +4317,13 @@
       </c>
       <c r="M38" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3924,16 +4331,15 @@
         <v>0</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3959,10 +4365,13 @@
       </c>
       <c r="M39" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3970,16 +4379,15 @@
         <v>0</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4005,10 +4413,13 @@
       </c>
       <c r="M40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4016,16 +4427,15 @@
         <v>0</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4051,10 +4461,13 @@
       </c>
       <c r="M41" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4062,16 +4475,15 @@
         <v>0</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4097,10 +4509,13 @@
       </c>
       <c r="M42" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4108,16 +4523,15 @@
         <v>0</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4143,10 +4557,13 @@
       </c>
       <c r="M43" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4154,16 +4571,15 @@
         <v>0</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4189,10 +4605,13 @@
       </c>
       <c r="M44" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4200,16 +4619,15 @@
         <v>0</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4235,10 +4653,13 @@
       </c>
       <c r="M45" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4246,16 +4667,15 @@
         <v>0</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4281,10 +4701,13 @@
       </c>
       <c r="M46" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4292,16 +4715,15 @@
         <v>0</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4327,10 +4749,13 @@
       </c>
       <c r="M47" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4338,16 +4763,15 @@
         <v>0</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4373,10 +4797,13 @@
       </c>
       <c r="M48" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4384,16 +4811,15 @@
         <v>0</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
+        <v>61600.86</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="3"/>
-        <v>30800.43</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="4"/>
         <v>18923.14</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>30800.43</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4419,10 +4845,13 @@
       </c>
       <c r="M49" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4430,22 +4859,21 @@
         <v>0</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
+        <v>724268.34</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="3"/>
-        <v>362134.17</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="4"/>
         <v>222487.65999999997</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>362134.17</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G3:G66" si="5">I50+J50</f>
+        <f t="shared" ref="G50:G66" si="4">I50+J50</f>
         <v>946756</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -4465,10 +4893,13 @@
       </c>
       <c r="M50" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4476,22 +4907,21 @@
         <v>0</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
+        <v>382644.50400000002</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="3"/>
-        <v>191322.25200000001</v>
-      </c>
-      <c r="D51">
+        <v>569207.49599999993</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
         <f t="shared" si="4"/>
-        <v>569207.49599999993</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>191322.25200000001</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="5"/>
         <v>951852</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -4511,10 +4941,13 @@
       </c>
       <c r="M51" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4522,22 +4955,21 @@
         <v>0</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
+        <v>383901.96</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="3"/>
-        <v>191950.98</v>
-      </c>
-      <c r="D52">
+        <v>571078.03999999992</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
         <f t="shared" si="4"/>
-        <v>571078.03999999992</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>191950.98</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6">
-        <f t="shared" si="5"/>
         <v>954980</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -4557,10 +4989,13 @@
       </c>
       <c r="M52" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4568,22 +5003,21 @@
         <v>0</v>
       </c>
       <c r="C53">
+        <f t="shared" si="0"/>
+        <v>386153.96400000004</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="3"/>
-        <v>193076.98200000002</v>
-      </c>
-      <c r="D53">
+        <v>574428.03599999996</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
         <f t="shared" si="4"/>
-        <v>574428.03599999996</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>193076.98200000002</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="5"/>
         <v>960582</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -4603,10 +5037,13 @@
       </c>
       <c r="M53" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4614,22 +5051,21 @@
         <v>0</v>
       </c>
       <c r="C54">
+        <f t="shared" si="0"/>
+        <v>388522.14600000001</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="3"/>
-        <v>194261.073</v>
-      </c>
-      <c r="D54">
+        <v>577950.85399999993</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
         <f t="shared" si="4"/>
-        <v>577950.85399999993</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>194261.073</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="6">
-        <f t="shared" si="5"/>
         <v>966473</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4649,10 +5085,13 @@
       </c>
       <c r="M54" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4660,22 +5099,21 @@
         <v>0</v>
       </c>
       <c r="C55">
+        <f t="shared" si="0"/>
+        <v>391383.984</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="3"/>
-        <v>195691.992</v>
-      </c>
-      <c r="D55">
+        <v>582208.01599999995</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
         <f t="shared" si="4"/>
-        <v>582208.01599999995</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>195691.992</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" si="5"/>
         <v>973592</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -4695,10 +5133,13 @@
       </c>
       <c r="M55" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4706,22 +5147,21 @@
         <v>0</v>
       </c>
       <c r="C56">
+        <f t="shared" si="0"/>
+        <v>170117.12800000003</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="3"/>
-        <v>85058.564000000013</v>
-      </c>
-      <c r="D56">
+        <v>813218.87200000009</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
         <f t="shared" si="4"/>
-        <v>813218.87200000009</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>85058.564000000013</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="6">
-        <f t="shared" si="5"/>
         <v>983336</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -4741,10 +5181,13 @@
       </c>
       <c r="M56" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10.000000000116415</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4752,22 +5195,21 @@
         <v>0</v>
       </c>
       <c r="C57">
+        <f t="shared" si="0"/>
+        <v>171482.27100000001</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="3"/>
-        <v>85741.135500000004</v>
-      </c>
-      <c r="D57">
+        <v>819744.72900000005</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
         <f t="shared" si="4"/>
-        <v>819744.72900000005</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>85741.135500000004</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="6">
-        <f t="shared" si="5"/>
         <v>991227</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -4787,10 +5229,13 @@
       </c>
       <c r="M57" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4798,22 +5243,21 @@
         <v>0</v>
       </c>
       <c r="C58">
+        <f t="shared" si="0"/>
+        <v>173080.27200000003</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="3"/>
-        <v>86540.136000000013</v>
-      </c>
-      <c r="D58">
+        <v>827383.72800000012</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
         <f t="shared" si="4"/>
-        <v>827383.72800000012</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>86540.136000000013</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="6">
-        <f t="shared" si="5"/>
         <v>1000464</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4833,10 +5277,13 @@
       </c>
       <c r="M58" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10.000000000116415</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4844,22 +5291,21 @@
         <v>0</v>
       </c>
       <c r="C59">
+        <f t="shared" si="0"/>
+        <v>174552.67500000002</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="3"/>
-        <v>87276.337500000009</v>
-      </c>
-      <c r="D59">
+        <v>834422.32500000007</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
         <f t="shared" si="4"/>
-        <v>834422.32500000007</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>87276.337500000009</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="6">
-        <f t="shared" si="5"/>
         <v>1008975</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -4879,10 +5325,13 @@
       </c>
       <c r="M59" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10.000000000116415</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4890,22 +5339,21 @@
         <v>0</v>
       </c>
       <c r="C60">
+        <f t="shared" si="0"/>
+        <v>175646.38100000002</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="3"/>
-        <v>87823.190500000012</v>
-      </c>
-      <c r="D60">
+        <v>839650.61900000006</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
         <f t="shared" si="4"/>
-        <v>839650.61900000006</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>87823.190500000012</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="6">
-        <f t="shared" si="5"/>
         <v>1015297</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -4925,10 +5373,13 @@
       </c>
       <c r="M60" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10.000000000116415</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4936,22 +5387,21 @@
         <v>0</v>
       </c>
       <c r="C61">
+        <f t="shared" si="0"/>
+        <v>86199.95</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="3"/>
-        <v>43099.974999999999</v>
-      </c>
-      <c r="D61">
+        <v>916125.05</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
         <f t="shared" si="4"/>
-        <v>916125.05</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>43099.974999999999</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="6">
-        <f t="shared" si="5"/>
         <v>1002325</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -4971,10 +5421,13 @@
       </c>
       <c r="M61" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4982,22 +5435,21 @@
         <v>0</v>
       </c>
       <c r="C62">
+        <f t="shared" si="0"/>
+        <v>85549.617999999988</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="3"/>
-        <v>42774.808999999994</v>
-      </c>
-      <c r="D62">
+        <v>909213.38199999998</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
         <f t="shared" si="4"/>
-        <v>909213.38199999998</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>42774.808999999994</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="6">
-        <f t="shared" si="5"/>
         <v>994763</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -5017,10 +5469,13 @@
       </c>
       <c r="M62" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5028,22 +5483,21 @@
         <v>0</v>
       </c>
       <c r="C63">
+        <f t="shared" si="0"/>
+        <v>83921.207999999999</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="3"/>
-        <v>41960.603999999999</v>
-      </c>
-      <c r="D63">
+        <v>891906.79200000002</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
         <f t="shared" si="4"/>
-        <v>891906.79200000002</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>41960.603999999999</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="6">
-        <f t="shared" si="5"/>
         <v>975828</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -5063,10 +5517,13 @@
       </c>
       <c r="M63" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5074,22 +5531,21 @@
         <v>0</v>
       </c>
       <c r="C64">
+        <f t="shared" si="0"/>
+        <v>81463.757999999987</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="3"/>
-        <v>40731.878999999994</v>
-      </c>
-      <c r="D64">
+        <v>865789.24200000009</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
         <f t="shared" si="4"/>
-        <v>865789.24200000009</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>40731.878999999994</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="6">
-        <f t="shared" si="5"/>
         <v>947253</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -5109,10 +5565,13 @@
       </c>
       <c r="M64" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10.000000000116415</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5120,22 +5579,21 @@
         <v>0</v>
       </c>
       <c r="C65">
+        <f t="shared" si="0"/>
+        <v>78593.25</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="3"/>
-        <v>39296.625</v>
-      </c>
-      <c r="D65">
+        <v>835281.75</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
         <f t="shared" si="4"/>
-        <v>835281.75</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>39296.625</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="6">
-        <f t="shared" si="5"/>
         <v>913875</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -5155,10 +5613,13 @@
       </c>
       <c r="M65" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5166,22 +5627,21 @@
         <v>0</v>
       </c>
       <c r="C66">
+        <f t="shared" si="0"/>
+        <v>65325.202000000012</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="3"/>
-        <v>32662.601000000006</v>
-      </c>
-      <c r="D66">
+        <v>817447.79799999995</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
         <f t="shared" si="4"/>
-        <v>817447.79799999995</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>32662.601000000006</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="6">
-        <f t="shared" si="5"/>
         <v>882773</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -5201,10 +5661,13 @@
       </c>
       <c r="M66" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5212,22 +5675,21 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C108" si="6">0.5*(L67/100)*G67</f>
-        <v>31748.220000000005</v>
+        <f t="shared" ref="C67:C109" si="5">(L67/100)*G67</f>
+        <v>63496.44000000001</v>
       </c>
       <c r="D67">
-        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E109" si="6">(K67/100)*G67</f>
         <v>794563.55999999994</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E109" si="7">0.5*(L67/100)*G67</f>
-        <v>31748.220000000005</v>
-      </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G109" si="8">I67+J67</f>
+        <f t="shared" ref="G67:G109" si="7">I67+J67</f>
         <v>858060</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -5246,11 +5708,14 @@
         <v>7.4</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" ref="M67:M109" si="9">SUM(C67:E67)-G67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M67:M109" si="8">SUM(C67:E67)-G67</f>
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5258,22 +5723,21 @@
         <v>0</v>
       </c>
       <c r="C68">
+        <f t="shared" si="5"/>
+        <v>62418.556000000011</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="6"/>
-        <v>31209.278000000006</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D109" si="10">(K68/100)*G68</f>
         <v>781075.4439999999</v>
       </c>
-      <c r="E68">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
         <f t="shared" si="7"/>
-        <v>31209.278000000006</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" s="6">
-        <f t="shared" si="8"/>
         <v>843494</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -5292,11 +5756,14 @@
         <v>7.4</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>9.9999999998835847</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5304,22 +5771,21 @@
         <v>0</v>
       </c>
       <c r="C69">
+        <f t="shared" si="5"/>
+        <v>61885.534000000007</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="6"/>
-        <v>30942.767000000003</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="10"/>
         <v>774405.4659999999</v>
       </c>
-      <c r="E69">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
         <f t="shared" si="7"/>
-        <v>30942.767000000003</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="6">
-        <f t="shared" si="8"/>
         <v>836291</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -5338,11 +5804,14 @@
         <v>7.4</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>9.9999999998835847</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5350,22 +5819,21 @@
         <v>0</v>
       </c>
       <c r="C70">
+        <f t="shared" si="5"/>
+        <v>61515.386000000006</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="6"/>
-        <v>30757.693000000003</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="10"/>
         <v>769773.61399999994</v>
       </c>
-      <c r="E70">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
         <f t="shared" si="7"/>
-        <v>30757.693000000003</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="6">
-        <f t="shared" si="8"/>
         <v>831289</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -5384,11 +5852,14 @@
         <v>7.4</v>
       </c>
       <c r="M70" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5396,22 +5867,21 @@
         <v>0</v>
       </c>
       <c r="C71">
+        <f t="shared" si="5"/>
+        <v>58387.133999999998</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="6"/>
-        <v>29193.566999999999</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="10"/>
         <v>763966.86600000004</v>
       </c>
-      <c r="E71">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6">
         <f t="shared" si="7"/>
-        <v>29193.566999999999</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="6">
-        <f t="shared" si="8"/>
         <v>822354</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -5430,11 +5900,14 @@
         <v>7.1</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5442,22 +5915,21 @@
         <v>0</v>
       </c>
       <c r="C72">
+        <f t="shared" si="5"/>
+        <v>57328.95</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="6"/>
-        <v>28664.474999999999</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="10"/>
         <v>750121.05</v>
       </c>
-      <c r="E72">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
         <f t="shared" si="7"/>
-        <v>28664.474999999999</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" s="6">
-        <f t="shared" si="8"/>
         <v>807450</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -5476,11 +5948,14 @@
         <v>7.1</v>
       </c>
       <c r="M72" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5488,22 +5963,21 @@
         <v>0</v>
       </c>
       <c r="C73">
+        <f t="shared" si="5"/>
+        <v>55701.842999999993</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="6"/>
-        <v>27850.921499999997</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="10"/>
         <v>728831.15700000001</v>
       </c>
-      <c r="E73">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
         <f t="shared" si="7"/>
-        <v>27850.921499999997</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="6">
-        <f t="shared" si="8"/>
         <v>784533</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -5522,11 +5996,14 @@
         <v>7.1</v>
       </c>
       <c r="M73" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5534,22 +6011,21 @@
         <v>0</v>
       </c>
       <c r="C74">
+        <f t="shared" si="5"/>
+        <v>53690.270999999993</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="6"/>
-        <v>26845.135499999997</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="10"/>
         <v>702510.72900000005</v>
       </c>
-      <c r="E74">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
         <f t="shared" si="7"/>
-        <v>26845.135499999997</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74" s="6">
-        <f t="shared" si="8"/>
         <v>756201</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -5568,11 +6044,14 @@
         <v>7.1</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5580,22 +6059,21 @@
         <v>0</v>
       </c>
       <c r="C75">
+        <f t="shared" si="5"/>
+        <v>51559.986999999994</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="6"/>
-        <v>25779.993499999997</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="10"/>
         <v>674637.01300000004</v>
       </c>
-      <c r="E75">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
         <f t="shared" si="7"/>
-        <v>25779.993499999997</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="8"/>
         <v>726197</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -5614,11 +6092,14 @@
         <v>7.1</v>
       </c>
       <c r="M75" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5626,22 +6107,21 @@
         <v>0</v>
       </c>
       <c r="C76">
+        <f t="shared" si="5"/>
+        <v>53849.873</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="6"/>
-        <v>26924.9365</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="10"/>
         <v>645499.12699999998</v>
       </c>
-      <c r="E76">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
         <f t="shared" si="7"/>
-        <v>26924.9365</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="6">
-        <f t="shared" si="8"/>
         <v>699349</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -5660,11 +6140,14 @@
         <v>7.7</v>
       </c>
       <c r="M76" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5672,22 +6155,21 @@
         <v>0</v>
       </c>
       <c r="C77">
+        <f t="shared" si="5"/>
+        <v>52201.072</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="6"/>
-        <v>26100.536</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="10"/>
         <v>625734.92799999996</v>
       </c>
-      <c r="E77">
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" si="7"/>
-        <v>26100.536</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" s="6">
-        <f t="shared" si="8"/>
         <v>677936</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -5706,11 +6188,14 @@
         <v>7.7</v>
       </c>
       <c r="M77" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5718,22 +6203,21 @@
         <v>0</v>
       </c>
       <c r="C78">
+        <f t="shared" si="5"/>
+        <v>51118.375</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="6"/>
-        <v>25559.1875</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="10"/>
         <v>612756.625</v>
       </c>
-      <c r="E78">
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6">
         <f t="shared" si="7"/>
-        <v>25559.1875</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="6">
-        <f t="shared" si="8"/>
         <v>663875</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -5752,11 +6236,14 @@
         <v>7.7</v>
       </c>
       <c r="M78" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5764,22 +6251,21 @@
         <v>0</v>
       </c>
       <c r="C79">
+        <f t="shared" si="5"/>
+        <v>50415.442000000003</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="6"/>
-        <v>25207.721000000001</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="10"/>
         <v>604330.55799999996</v>
       </c>
-      <c r="E79">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" si="7"/>
-        <v>25207.721000000001</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" s="6">
-        <f t="shared" si="8"/>
         <v>654746</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -5798,11 +6284,14 @@
         <v>7.7</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5810,22 +6299,21 @@
         <v>0</v>
       </c>
       <c r="C80">
+        <f t="shared" si="5"/>
+        <v>49818.923000000003</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="6"/>
-        <v>24909.461500000001</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="10"/>
         <v>597180.07699999993</v>
       </c>
-      <c r="E80">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
         <f t="shared" si="7"/>
-        <v>24909.461500000001</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="6">
-        <f t="shared" si="8"/>
         <v>646999</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -5844,11 +6332,14 @@
         <v>7.7</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>9.9999999998835847</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5856,22 +6347,21 @@
         <v>0</v>
       </c>
       <c r="C81">
+        <f t="shared" si="5"/>
+        <v>57362.85</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="6"/>
-        <v>28681.424999999999</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="10"/>
         <v>580002.15</v>
       </c>
-      <c r="E81">
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
         <f t="shared" si="7"/>
-        <v>28681.424999999999</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="8"/>
         <v>637365</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -5890,11 +6380,14 @@
         <v>9</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5902,22 +6395,21 @@
         <v>0</v>
       </c>
       <c r="C82">
+        <f t="shared" si="5"/>
+        <v>56287.89</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="6"/>
-        <v>28143.945</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="10"/>
         <v>569133.11</v>
       </c>
-      <c r="E82">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
         <f t="shared" si="7"/>
-        <v>28143.945</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82" s="6">
-        <f t="shared" si="8"/>
         <v>625421</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -5936,11 +6428,14 @@
         <v>9</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5948,22 +6443,21 @@
         <v>0</v>
       </c>
       <c r="C83">
+        <f t="shared" si="5"/>
+        <v>54860.49</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="6"/>
-        <v>27430.244999999999</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="10"/>
         <v>554700.51</v>
       </c>
-      <c r="E83">
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6">
         <f t="shared" si="7"/>
-        <v>27430.244999999999</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83" s="6">
-        <f t="shared" si="8"/>
         <v>609561</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -5982,11 +6476,14 @@
         <v>9</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5994,22 +6491,21 @@
         <v>0</v>
       </c>
       <c r="C84">
+        <f t="shared" si="5"/>
+        <v>53154</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="6"/>
-        <v>26577</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="10"/>
         <v>537446</v>
       </c>
-      <c r="E84">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
         <f t="shared" si="7"/>
-        <v>26577</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" s="6">
-        <f t="shared" si="8"/>
         <v>590600</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -6028,11 +6524,14 @@
         <v>9</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6040,22 +6539,21 @@
         <v>0</v>
       </c>
       <c r="C85">
+        <f t="shared" si="5"/>
+        <v>51376.409999999996</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="6"/>
-        <v>25688.204999999998</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="10"/>
         <v>519472.59</v>
       </c>
-      <c r="E85">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
         <f t="shared" si="7"/>
-        <v>25688.204999999998</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" s="6">
-        <f t="shared" si="8"/>
         <v>570849</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -6074,11 +6572,14 @@
         <v>9</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6086,22 +6587,21 @@
         <v>0</v>
       </c>
       <c r="C86">
+        <f t="shared" si="5"/>
+        <v>52364.855000000003</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="6"/>
-        <v>26182.427500000002</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="10"/>
         <v>498844.14500000002</v>
       </c>
-      <c r="E86">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="7"/>
-        <v>26182.427500000002</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" s="6">
-        <f t="shared" si="8"/>
         <v>551209</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -6120,11 +6620,14 @@
         <v>9.5</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6132,22 +6635,21 @@
         <v>0</v>
       </c>
       <c r="C87">
+        <f t="shared" si="5"/>
+        <v>50386.004999999997</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="6"/>
-        <v>25193.002499999999</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="10"/>
         <v>479992.995</v>
       </c>
-      <c r="E87">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
         <f t="shared" si="7"/>
-        <v>25193.002499999999</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" s="6">
-        <f t="shared" si="8"/>
         <v>530379</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -6166,11 +6668,14 @@
         <v>9.5</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6178,22 +6683,21 @@
         <v>0</v>
       </c>
       <c r="C88">
+        <f t="shared" si="5"/>
+        <v>48322.224999999999</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="6"/>
-        <v>24161.112499999999</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="10"/>
         <v>460332.77500000002</v>
       </c>
-      <c r="E88">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" s="6">
         <f t="shared" si="7"/>
-        <v>24161.112499999999</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" s="6">
-        <f t="shared" si="8"/>
         <v>508655</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -6212,11 +6716,14 @@
         <v>9.5</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6224,22 +6731,21 @@
         <v>0</v>
       </c>
       <c r="C89">
+        <f t="shared" si="5"/>
+        <v>46212.18</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="6"/>
-        <v>23106.09</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="10"/>
         <v>440231.82</v>
       </c>
-      <c r="E89">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
         <f t="shared" si="7"/>
-        <v>23106.09</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" s="6">
-        <f t="shared" si="8"/>
         <v>486444</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -6258,11 +6764,14 @@
         <v>9.5</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6270,22 +6779,21 @@
         <v>0</v>
       </c>
       <c r="C90">
+        <f t="shared" si="5"/>
+        <v>44076.01</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="6"/>
-        <v>22038.005000000001</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="10"/>
         <v>419881.99</v>
       </c>
-      <c r="E90">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6">
         <f t="shared" si="7"/>
-        <v>22038.005000000001</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6">
-        <f t="shared" si="8"/>
         <v>463958</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -6304,11 +6812,14 @@
         <v>9.5</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6316,22 +6827,21 @@
         <v>0</v>
       </c>
       <c r="C91">
+        <f t="shared" si="5"/>
+        <v>40642.932000000001</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="6"/>
-        <v>20321.466</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="10"/>
         <v>401128.06799999997</v>
       </c>
-      <c r="E91">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" s="6">
         <f t="shared" si="7"/>
-        <v>20321.466</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91" s="6">
-        <f t="shared" si="8"/>
         <v>441771</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -6350,11 +6860,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6362,22 +6875,21 @@
         <v>0</v>
       </c>
       <c r="C92">
+        <f t="shared" si="5"/>
+        <v>38688.300000000003</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="6"/>
-        <v>19344.150000000001</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="10"/>
         <v>381836.69999999995</v>
       </c>
-      <c r="E92">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="6">
         <f t="shared" si="7"/>
-        <v>19344.150000000001</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" s="6">
-        <f t="shared" si="8"/>
         <v>420525</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -6396,11 +6908,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>9.9999999999417923</v>
+      </c>
+      <c r="N92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6408,22 +6923,21 @@
         <v>0</v>
       </c>
       <c r="C93">
+        <f t="shared" si="5"/>
+        <v>36852.716</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="6"/>
-        <v>18426.358</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="10"/>
         <v>363720.28399999999</v>
       </c>
-      <c r="E93">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
         <f t="shared" si="7"/>
-        <v>18426.358</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" s="6">
-        <f t="shared" si="8"/>
         <v>400573</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -6442,11 +6956,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6454,22 +6971,21 @@
         <v>0</v>
       </c>
       <c r="C94">
+        <f t="shared" si="5"/>
+        <v>35114.468000000001</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="6"/>
-        <v>17557.234</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="10"/>
         <v>346564.53199999995</v>
       </c>
-      <c r="E94">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6">
         <f t="shared" si="7"/>
-        <v>17557.234</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94" s="6">
-        <f t="shared" si="8"/>
         <v>381679</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -6488,11 +7004,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>9.9999999999417923</v>
+      </c>
+      <c r="N94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6500,22 +7019,21 @@
         <v>0</v>
       </c>
       <c r="C95">
+        <f t="shared" si="5"/>
+        <v>33466.748</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="6"/>
-        <v>16733.374</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="10"/>
         <v>330302.25199999998</v>
       </c>
-      <c r="E95">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" s="6">
         <f t="shared" si="7"/>
-        <v>16733.374</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95" s="6">
-        <f t="shared" si="8"/>
         <v>363769</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -6534,11 +7052,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6546,22 +7067,21 @@
         <v>0</v>
       </c>
       <c r="C96">
+        <f t="shared" si="5"/>
+        <v>37376.100000000006</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="6"/>
-        <v>18688.050000000003</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="10"/>
         <v>308698.90000000002</v>
       </c>
-      <c r="E96">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6">
         <f t="shared" si="7"/>
-        <v>18688.050000000003</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" s="6">
-        <f t="shared" si="8"/>
         <v>346075</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -6580,11 +7100,14 @@
         <v>10.8</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6592,22 +7115,21 @@
         <v>0</v>
       </c>
       <c r="C97">
+        <f t="shared" si="5"/>
+        <v>35406.504000000001</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="6"/>
-        <v>17703.252</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="10"/>
         <v>292431.49599999998</v>
       </c>
-      <c r="E97">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6">
         <f t="shared" si="7"/>
-        <v>17703.252</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" s="6">
-        <f t="shared" si="8"/>
         <v>327838</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -6626,11 +7148,14 @@
         <v>10.8</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6638,22 +7163,21 @@
         <v>0</v>
       </c>
       <c r="C98">
+        <f t="shared" si="5"/>
+        <v>33336.684000000001</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="6"/>
-        <v>16668.342000000001</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="10"/>
         <v>275336.31599999999</v>
       </c>
-      <c r="E98">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6">
         <f t="shared" si="7"/>
-        <v>16668.342000000001</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" s="6">
-        <f t="shared" si="8"/>
         <v>308673</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -6672,11 +7196,14 @@
         <v>10.8</v>
       </c>
       <c r="M98" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6684,22 +7211,21 @@
         <v>0</v>
       </c>
       <c r="C99">
+        <f t="shared" si="5"/>
+        <v>31241.592000000004</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
         <f t="shared" si="6"/>
-        <v>15620.796000000002</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="10"/>
         <v>258032.408</v>
       </c>
-      <c r="E99">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" s="6">
         <f t="shared" si="7"/>
-        <v>15620.796000000002</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" s="6">
-        <f t="shared" si="8"/>
         <v>289274</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -6718,11 +7244,14 @@
         <v>10.8</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6730,22 +7259,21 @@
         <v>0</v>
       </c>
       <c r="C100">
+        <f t="shared" si="5"/>
+        <v>29106.216000000004</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
         <f t="shared" si="6"/>
-        <v>14553.108000000002</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="10"/>
         <v>240395.78400000001</v>
       </c>
-      <c r="E100">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6">
         <f t="shared" si="7"/>
-        <v>14553.108000000002</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" s="6">
-        <f t="shared" si="8"/>
         <v>269502</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -6764,11 +7292,14 @@
         <v>10.8</v>
       </c>
       <c r="M100" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6776,22 +7307,21 @@
         <v>0</v>
       </c>
       <c r="C101">
+        <f t="shared" si="5"/>
+        <v>27151.416000000005</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
         <f t="shared" si="6"/>
-        <v>13575.708000000002</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="10"/>
         <v>224250.584</v>
       </c>
-      <c r="E101">
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
         <f t="shared" si="7"/>
-        <v>13575.708000000002</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101" s="6">
-        <f t="shared" si="8"/>
         <v>251402</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -6810,11 +7340,14 @@
         <v>10.8</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6822,22 +7355,21 @@
         <v>0</v>
       </c>
       <c r="C102">
+        <f t="shared" si="5"/>
+        <v>25662.312000000002</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
         <f t="shared" si="6"/>
-        <v>12831.156000000001</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="10"/>
         <v>211951.68799999999</v>
       </c>
-      <c r="E102">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" s="6">
         <f t="shared" si="7"/>
-        <v>12831.156000000001</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" s="6">
-        <f t="shared" si="8"/>
         <v>237614</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -6856,11 +7388,14 @@
         <v>10.8</v>
       </c>
       <c r="M102" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6868,22 +7403,21 @@
         <v>0</v>
       </c>
       <c r="C103">
+        <f t="shared" si="5"/>
+        <v>24787.404000000002</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
         <f t="shared" si="6"/>
-        <v>12393.702000000001</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="10"/>
         <v>204725.59599999999</v>
       </c>
-      <c r="E103">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" s="6">
         <f t="shared" si="7"/>
-        <v>12393.702000000001</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103" s="6">
-        <f t="shared" si="8"/>
         <v>229513</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -6902,11 +7436,14 @@
         <v>10.8</v>
       </c>
       <c r="M103" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6914,22 +7451,21 @@
         <v>0</v>
       </c>
       <c r="C104">
+        <f t="shared" si="5"/>
+        <v>24360.048000000003</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
         <f t="shared" si="6"/>
-        <v>12180.024000000001</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="10"/>
         <v>201195.95199999999</v>
       </c>
-      <c r="E104">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6">
         <f t="shared" si="7"/>
-        <v>12180.024000000001</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104" s="6">
-        <f t="shared" si="8"/>
         <v>225556</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -6948,11 +7484,14 @@
         <v>10.8</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6960,22 +7499,21 @@
         <v>0</v>
       </c>
       <c r="C105">
+        <f t="shared" si="5"/>
+        <v>24155.712000000003</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
         <f t="shared" si="6"/>
-        <v>12077.856000000002</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="10"/>
         <v>199508.288</v>
       </c>
-      <c r="E105">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" s="6">
         <f t="shared" si="7"/>
-        <v>12077.856000000002</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105" s="6">
-        <f t="shared" si="8"/>
         <v>223664</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -6994,11 +7532,14 @@
         <v>10.8</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7006,22 +7547,21 @@
         <v>0</v>
       </c>
       <c r="C106">
+        <f t="shared" si="5"/>
+        <v>193802.02560000005</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
         <f t="shared" si="6"/>
-        <v>96901.012800000026</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="10"/>
         <v>1600661.1744000001</v>
       </c>
-      <c r="E106">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" s="6">
         <f t="shared" si="7"/>
-        <v>96901.012800000026</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" s="6">
-        <f t="shared" si="8"/>
         <v>1794463.2000000002</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -7040,11 +7580,14 @@
         <v>10.8</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7052,22 +7595,21 @@
         <v>0</v>
       </c>
       <c r="C107">
+        <f t="shared" si="5"/>
+        <v>103144.79520000001</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
         <f t="shared" si="6"/>
-        <v>51572.397600000004</v>
-      </c>
-      <c r="D107">
-        <f>(K107/100)*G107</f>
         <v>851899.60480000009</v>
       </c>
-      <c r="E107">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6">
         <f t="shared" si="7"/>
-        <v>51572.397600000004</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" s="6">
-        <f t="shared" si="8"/>
         <v>955044.4</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -7086,11 +7628,14 @@
         <v>10.8</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10.000000000116415</v>
+      </c>
+      <c r="N107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7098,22 +7643,21 @@
         <v>0</v>
       </c>
       <c r="C108">
+        <f t="shared" si="5"/>
+        <v>38505.881520000003</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
         <f t="shared" si="6"/>
-        <v>19252.940760000001</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="10"/>
         <v>318030.05848000001</v>
       </c>
-      <c r="E108">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" s="6">
         <f t="shared" si="7"/>
-        <v>19252.940760000001</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" s="6">
-        <f t="shared" si="8"/>
         <v>356535.94</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -7132,11 +7676,14 @@
         <v>10.8</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7144,22 +7691,21 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <f>0.5*(L109/100)*G109</f>
-        <v>1241.4384</v>
+        <f t="shared" si="5"/>
+        <v>2482.8768</v>
       </c>
       <c r="D109">
-        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="6"/>
         <v>20506.7232</v>
       </c>
-      <c r="E109">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6">
         <f t="shared" si="7"/>
-        <v>1241.4384</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" s="6">
-        <f t="shared" si="8"/>
         <v>22989.599999999999</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -7178,15 +7724,18 @@
         <v>10.8</v>
       </c>
       <c r="M109" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H110" s="3"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I112" s="7"/>
       <c r="J112" s="6"/>
     </row>
@@ -7319,8 +7868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B445-0F45-AA4E-BB0D-75803854B98D}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7353,13 +7902,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D2">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -7373,13 +7922,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D3">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -7393,13 +7942,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D4">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7413,13 +7962,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D5">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7433,13 +7982,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D6">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7453,13 +8002,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D7">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7473,13 +8022,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D8">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7493,13 +8042,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D9">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -7513,13 +8062,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D10">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7533,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D11">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7553,13 +8102,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D12">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -7573,13 +8122,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>366840.0675</v>
+        <v>61140.011249999996</v>
       </c>
       <c r="D13">
-        <v>225378.86499999999</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>366840.0675</v>
+        <v>18781.572083333333</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -7593,13 +8142,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D14">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -7613,13 +8162,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D15">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -7633,13 +8182,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D16">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -7653,13 +8202,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D17">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -7673,13 +8222,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D18">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -7693,13 +8242,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D19">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -7713,13 +8262,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D20">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -7733,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D21">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -7753,13 +8302,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D22">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -7773,13 +8322,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D23">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -7793,13 +8342,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D24">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -7813,13 +8362,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>351575.25750000001</v>
+        <v>58595.876250000001</v>
       </c>
       <c r="D25">
-        <v>216000.48499999999</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>351575.25750000001</v>
+        <v>18000.040416666667</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -7833,13 +8382,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D26">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -7853,13 +8402,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D27">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7873,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D28">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -7893,13 +8442,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D29">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -7913,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D30">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -7933,13 +8482,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D31">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -7953,13 +8502,13 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D32">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -7973,13 +8522,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D33">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -7993,13 +8542,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D34">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -8013,13 +8562,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D35">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -8033,13 +8582,13 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D36">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -8053,13 +8602,13 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>356248.64250000002</v>
+        <v>59374.77375</v>
       </c>
       <c r="D37">
-        <v>218871.715</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>356248.64250000002</v>
+        <v>18239.309583333332</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -8073,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D38">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -8093,13 +8642,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D39">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -8113,13 +8662,13 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D40">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -8133,13 +8682,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D41">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -8153,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D42">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -8173,13 +8722,13 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D43">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -8193,13 +8742,13 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D44">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -8213,13 +8762,13 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D45">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -8233,13 +8782,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D46">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -8253,13 +8802,13 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D47">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -8273,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D48">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -8293,13 +8842,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>369605.16000000003</v>
+        <v>61600.86</v>
       </c>
       <c r="D49">
-        <v>227077.68</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>369605.16000000003</v>
+        <v>18923.14</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -8313,13 +8862,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>362134.17</v>
+        <v>724268.34</v>
       </c>
       <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
         <v>222487.65999999997</v>
-      </c>
-      <c r="E50">
-        <v>362134.17</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -8333,13 +8882,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>191322.25200000001</v>
+        <v>382644.50400000002</v>
       </c>
       <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
         <v>569207.49599999993</v>
-      </c>
-      <c r="E51">
-        <v>191322.25200000001</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -8353,13 +8902,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>191950.98</v>
+        <v>383901.96</v>
       </c>
       <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
         <v>571078.03999999992</v>
-      </c>
-      <c r="E52">
-        <v>191950.98</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -8373,13 +8922,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>193076.98200000002</v>
+        <v>386153.96400000004</v>
       </c>
       <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
         <v>574428.03599999996</v>
-      </c>
-      <c r="E53">
-        <v>193076.98200000002</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -8393,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>194261.073</v>
+        <v>388522.14600000001</v>
       </c>
       <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
         <v>577950.85399999993</v>
-      </c>
-      <c r="E54">
-        <v>194261.073</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -8413,13 +8962,13 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>195691.992</v>
+        <v>391383.984</v>
       </c>
       <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
         <v>582208.01599999995</v>
-      </c>
-      <c r="E55">
-        <v>195691.992</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -8433,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>85058.564000000013</v>
+        <v>170117.12800000003</v>
       </c>
       <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
         <v>813218.87200000009</v>
-      </c>
-      <c r="E56">
-        <v>85058.564000000013</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -8453,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>85741.135500000004</v>
+        <v>171482.27100000001</v>
       </c>
       <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
         <v>819744.72900000005</v>
-      </c>
-      <c r="E57">
-        <v>85741.135500000004</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -8473,13 +9022,13 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>86540.136000000013</v>
+        <v>173080.27200000003</v>
       </c>
       <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
         <v>827383.72800000012</v>
-      </c>
-      <c r="E58">
-        <v>86540.136000000013</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -8493,13 +9042,13 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>87276.337500000009</v>
+        <v>174552.67500000002</v>
       </c>
       <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
         <v>834422.32500000007</v>
-      </c>
-      <c r="E59">
-        <v>87276.337500000009</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -8513,13 +9062,13 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>87823.190500000012</v>
+        <v>175646.38100000002</v>
       </c>
       <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
         <v>839650.61900000006</v>
-      </c>
-      <c r="E60">
-        <v>87823.190500000012</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -8533,13 +9082,13 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>43099.974999999999</v>
+        <v>86199.95</v>
       </c>
       <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
         <v>916125.05</v>
-      </c>
-      <c r="E61">
-        <v>43099.974999999999</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -8553,13 +9102,13 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>42774.808999999994</v>
+        <v>85549.617999999988</v>
       </c>
       <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
         <v>909213.38199999998</v>
-      </c>
-      <c r="E62">
-        <v>42774.808999999994</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -8573,13 +9122,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>41960.603999999999</v>
+        <v>83921.207999999999</v>
       </c>
       <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
         <v>891906.79200000002</v>
-      </c>
-      <c r="E63">
-        <v>41960.603999999999</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8593,13 +9142,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>40731.878999999994</v>
+        <v>81463.757999999987</v>
       </c>
       <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
         <v>865789.24200000009</v>
-      </c>
-      <c r="E64">
-        <v>40731.878999999994</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -8613,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>39296.625</v>
+        <v>78593.25</v>
       </c>
       <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
         <v>835281.75</v>
-      </c>
-      <c r="E65">
-        <v>39296.625</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -8633,13 +9182,13 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>32662.601000000006</v>
+        <v>65325.202000000012</v>
       </c>
       <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
         <v>817447.79799999995</v>
-      </c>
-      <c r="E66">
-        <v>32662.601000000006</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8653,13 +9202,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>31748.220000000005</v>
+        <v>63496.44000000001</v>
       </c>
       <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
         <v>794563.55999999994</v>
-      </c>
-      <c r="E67">
-        <v>31748.220000000005</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8673,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>31209.278000000006</v>
+        <v>62418.556000000011</v>
       </c>
       <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
         <v>781075.4439999999</v>
-      </c>
-      <c r="E68">
-        <v>31209.278000000006</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -8693,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>30942.767000000003</v>
+        <v>61885.534000000007</v>
       </c>
       <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
         <v>774405.4659999999</v>
-      </c>
-      <c r="E69">
-        <v>30942.767000000003</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -8713,13 +9262,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>30757.693000000003</v>
+        <v>61515.386000000006</v>
       </c>
       <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
         <v>769773.61399999994</v>
-      </c>
-      <c r="E70">
-        <v>30757.693000000003</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -8733,13 +9282,13 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>29193.566999999999</v>
+        <v>58387.133999999998</v>
       </c>
       <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
         <v>763966.86600000004</v>
-      </c>
-      <c r="E71">
-        <v>29193.566999999999</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -8753,13 +9302,13 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>28664.474999999999</v>
+        <v>57328.95</v>
       </c>
       <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
         <v>750121.05</v>
-      </c>
-      <c r="E72">
-        <v>28664.474999999999</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -8773,13 +9322,13 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>27850.921499999997</v>
+        <v>55701.842999999993</v>
       </c>
       <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
         <v>728831.15700000001</v>
-      </c>
-      <c r="E73">
-        <v>27850.921499999997</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -8793,13 +9342,13 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>26845.135499999997</v>
+        <v>53690.270999999993</v>
       </c>
       <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
         <v>702510.72900000005</v>
-      </c>
-      <c r="E74">
-        <v>26845.135499999997</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -8813,13 +9362,13 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>25779.993499999997</v>
+        <v>51559.986999999994</v>
       </c>
       <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
         <v>674637.01300000004</v>
-      </c>
-      <c r="E75">
-        <v>25779.993499999997</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -8833,13 +9382,13 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>26924.9365</v>
+        <v>53849.873</v>
       </c>
       <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
         <v>645499.12699999998</v>
-      </c>
-      <c r="E76">
-        <v>26924.9365</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -8853,13 +9402,13 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>26100.536</v>
+        <v>52201.072</v>
       </c>
       <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
         <v>625734.92799999996</v>
-      </c>
-      <c r="E77">
-        <v>26100.536</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -8873,13 +9422,13 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>25559.1875</v>
+        <v>51118.375</v>
       </c>
       <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
         <v>612756.625</v>
-      </c>
-      <c r="E78">
-        <v>25559.1875</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -8893,13 +9442,13 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>25207.721000000001</v>
+        <v>50415.442000000003</v>
       </c>
       <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79">
         <v>604330.55799999996</v>
-      </c>
-      <c r="E79">
-        <v>25207.721000000001</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -8913,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>24909.461500000001</v>
+        <v>49818.923000000003</v>
       </c>
       <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
         <v>597180.07699999993</v>
-      </c>
-      <c r="E80">
-        <v>24909.461500000001</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -8933,13 +9482,13 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>28681.424999999999</v>
+        <v>57362.85</v>
       </c>
       <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
         <v>580002.15</v>
-      </c>
-      <c r="E81">
-        <v>28681.424999999999</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -8953,13 +9502,13 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>28143.945</v>
+        <v>56287.89</v>
       </c>
       <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
         <v>569133.11</v>
-      </c>
-      <c r="E82">
-        <v>28143.945</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -8973,13 +9522,13 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>27430.244999999999</v>
+        <v>54860.49</v>
       </c>
       <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
         <v>554700.51</v>
-      </c>
-      <c r="E83">
-        <v>27430.244999999999</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -8993,13 +9542,13 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>26577</v>
+        <v>53154</v>
       </c>
       <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
         <v>537446</v>
-      </c>
-      <c r="E84">
-        <v>26577</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -9013,13 +9562,13 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>25688.204999999998</v>
+        <v>51376.409999999996</v>
       </c>
       <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
         <v>519472.59</v>
-      </c>
-      <c r="E85">
-        <v>25688.204999999998</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -9033,13 +9582,13 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>26182.427500000002</v>
+        <v>52364.855000000003</v>
       </c>
       <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
         <v>498844.14500000002</v>
-      </c>
-      <c r="E86">
-        <v>26182.427500000002</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -9053,13 +9602,13 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>25193.002499999999</v>
+        <v>50386.004999999997</v>
       </c>
       <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
         <v>479992.995</v>
-      </c>
-      <c r="E87">
-        <v>25193.002499999999</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -9073,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>24161.112499999999</v>
+        <v>48322.224999999999</v>
       </c>
       <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
         <v>460332.77500000002</v>
-      </c>
-      <c r="E88">
-        <v>24161.112499999999</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -9093,13 +9642,13 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>23106.09</v>
+        <v>46212.18</v>
       </c>
       <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
         <v>440231.82</v>
-      </c>
-      <c r="E89">
-        <v>23106.09</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -9113,13 +9662,13 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>22038.005000000001</v>
+        <v>44076.01</v>
       </c>
       <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
         <v>419881.99</v>
-      </c>
-      <c r="E90">
-        <v>22038.005000000001</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -9133,13 +9682,13 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>20321.466</v>
+        <v>40642.932000000001</v>
       </c>
       <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
         <v>401128.06799999997</v>
-      </c>
-      <c r="E91">
-        <v>20321.466</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -9153,13 +9702,13 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>19344.150000000001</v>
+        <v>38688.300000000003</v>
       </c>
       <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
         <v>381836.69999999995</v>
-      </c>
-      <c r="E92">
-        <v>19344.150000000001</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -9173,13 +9722,13 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>18426.358</v>
+        <v>36852.716</v>
       </c>
       <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
         <v>363720.28399999999</v>
-      </c>
-      <c r="E93">
-        <v>18426.358</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -9193,13 +9742,13 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>17557.234</v>
+        <v>35114.468000000001</v>
       </c>
       <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
         <v>346564.53199999995</v>
-      </c>
-      <c r="E94">
-        <v>17557.234</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -9213,13 +9762,13 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>16733.374</v>
+        <v>33466.748</v>
       </c>
       <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
         <v>330302.25199999998</v>
-      </c>
-      <c r="E95">
-        <v>16733.374</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -9233,13 +9782,13 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>18688.050000000003</v>
+        <v>37376.100000000006</v>
       </c>
       <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
         <v>308698.90000000002</v>
-      </c>
-      <c r="E96">
-        <v>18688.050000000003</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -9253,13 +9802,13 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>17703.252</v>
+        <v>35406.504000000001</v>
       </c>
       <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
         <v>292431.49599999998</v>
-      </c>
-      <c r="E97">
-        <v>17703.252</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -9273,13 +9822,13 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>16668.342000000001</v>
+        <v>33336.684000000001</v>
       </c>
       <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
         <v>275336.31599999999</v>
-      </c>
-      <c r="E98">
-        <v>16668.342000000001</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -9293,13 +9842,13 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>15620.796000000002</v>
+        <v>31241.592000000004</v>
       </c>
       <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
         <v>258032.408</v>
-      </c>
-      <c r="E99">
-        <v>15620.796000000002</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -9313,13 +9862,13 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>14553.108000000002</v>
+        <v>29106.216000000004</v>
       </c>
       <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
         <v>240395.78400000001</v>
-      </c>
-      <c r="E100">
-        <v>14553.108000000002</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -9333,13 +9882,13 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>13575.708000000002</v>
+        <v>27151.416000000005</v>
       </c>
       <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
         <v>224250.584</v>
-      </c>
-      <c r="E101">
-        <v>13575.708000000002</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -9353,13 +9902,13 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>12831.156000000001</v>
+        <v>25662.312000000002</v>
       </c>
       <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
         <v>211951.68799999999</v>
-      </c>
-      <c r="E102">
-        <v>12831.156000000001</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -9373,13 +9922,13 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>12393.702000000001</v>
+        <v>24787.404000000002</v>
       </c>
       <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
         <v>204725.59599999999</v>
-      </c>
-      <c r="E103">
-        <v>12393.702000000001</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -9393,13 +9942,13 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>12180.024000000001</v>
+        <v>24360.048000000003</v>
       </c>
       <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
         <v>201195.95199999999</v>
-      </c>
-      <c r="E104">
-        <v>12180.024000000001</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -9413,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>12077.856000000002</v>
+        <v>24155.712000000003</v>
       </c>
       <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
         <v>199508.288</v>
-      </c>
-      <c r="E105">
-        <v>12077.856000000002</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -9433,13 +9982,13 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>96901.012800000026</v>
+        <v>193802.02560000005</v>
       </c>
       <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
         <v>1600661.1744000001</v>
-      </c>
-      <c r="E106">
-        <v>96901.012800000026</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -9453,13 +10002,13 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>51572.397600000004</v>
+        <v>103144.79520000001</v>
       </c>
       <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
         <v>851899.60480000009</v>
-      </c>
-      <c r="E107">
-        <v>51572.397600000004</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -9473,13 +10022,13 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>19252.940760000001</v>
+        <v>38505.881520000003</v>
       </c>
       <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
         <v>318030.05848000001</v>
-      </c>
-      <c r="E108">
-        <v>19252.940760000001</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -9493,13 +10042,13 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>1241.4384</v>
+        <v>2482.8768</v>
       </c>
       <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
         <v>20506.7232</v>
-      </c>
-      <c r="E109">
-        <v>1241.4384</v>
       </c>
       <c r="F109">
         <v>0</v>
